--- a/BackTest/2020-01-13 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-13 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.84</v>
+        <v>29.7</v>
       </c>
       <c r="C2" t="n">
-        <v>29.66</v>
+        <v>29.7</v>
       </c>
       <c r="D2" t="n">
-        <v>29.84</v>
+        <v>29.71</v>
       </c>
       <c r="E2" t="n">
-        <v>29.66</v>
+        <v>29.7</v>
       </c>
       <c r="F2" t="n">
-        <v>75274.3496</v>
+        <v>4500</v>
       </c>
       <c r="G2" t="n">
-        <v>29.78066666666668</v>
+        <v>76279.69799999993</v>
       </c>
       <c r="H2" t="n">
-        <v>29.67933333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29.63</v>
+        <v>29.7</v>
       </c>
       <c r="C3" t="n">
-        <v>29.63</v>
+        <v>29.7</v>
       </c>
       <c r="D3" t="n">
-        <v>29.63</v>
+        <v>29.7</v>
       </c>
       <c r="E3" t="n">
-        <v>29.63</v>
+        <v>29.7</v>
       </c>
       <c r="F3" t="n">
-        <v>17341.9809</v>
+        <v>35102.495</v>
       </c>
       <c r="G3" t="n">
-        <v>29.76866666666668</v>
+        <v>76279.69799999993</v>
       </c>
       <c r="H3" t="n">
-        <v>29.6845</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="L3" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.83</v>
+        <v>29.7</v>
       </c>
       <c r="C4" t="n">
-        <v>29.83</v>
+        <v>29.71</v>
       </c>
       <c r="D4" t="n">
-        <v>29.83</v>
+        <v>29.71</v>
       </c>
       <c r="E4" t="n">
-        <v>29.83</v>
+        <v>29.7</v>
       </c>
       <c r="F4" t="n">
-        <v>662.2925</v>
+        <v>5329</v>
       </c>
       <c r="G4" t="n">
-        <v>29.77066666666668</v>
+        <v>81608.69799999993</v>
       </c>
       <c r="H4" t="n">
-        <v>29.69333333333333</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29.63</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29.79</v>
+        <v>29.71</v>
       </c>
       <c r="C5" t="n">
-        <v>29.79</v>
+        <v>29.77</v>
       </c>
       <c r="D5" t="n">
-        <v>29.79</v>
+        <v>29.77</v>
       </c>
       <c r="E5" t="n">
-        <v>29.79</v>
+        <v>29.71</v>
       </c>
       <c r="F5" t="n">
-        <v>1197.046</v>
+        <v>9000</v>
       </c>
       <c r="G5" t="n">
-        <v>29.77066666666668</v>
+        <v>90608.69799999993</v>
       </c>
       <c r="H5" t="n">
-        <v>29.69483333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>29.83</v>
-      </c>
-      <c r="L5" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,40 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.88</v>
+        <v>29.77</v>
       </c>
       <c r="C6" t="n">
-        <v>29.88</v>
+        <v>29.77</v>
       </c>
       <c r="D6" t="n">
-        <v>29.88</v>
+        <v>29.77</v>
       </c>
       <c r="E6" t="n">
-        <v>29.88</v>
+        <v>29.77</v>
       </c>
       <c r="F6" t="n">
-        <v>5890.5966</v>
+        <v>6370.8251</v>
       </c>
       <c r="G6" t="n">
-        <v>29.78200000000001</v>
+        <v>90608.69799999993</v>
       </c>
       <c r="H6" t="n">
-        <v>29.69766666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="L6" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,44 +608,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.93</v>
+        <v>29.73</v>
       </c>
       <c r="C7" t="n">
-        <v>29.93</v>
+        <v>29.61</v>
       </c>
       <c r="D7" t="n">
-        <v>29.93</v>
+        <v>29.73</v>
       </c>
       <c r="E7" t="n">
-        <v>29.93</v>
+        <v>29.61</v>
       </c>
       <c r="F7" t="n">
-        <v>4490.1177</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>29.79666666666668</v>
+        <v>90572.69799999993</v>
       </c>
       <c r="H7" t="n">
-        <v>29.70133333333333</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="L7" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,42 +649,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.89</v>
+        <v>29.74</v>
       </c>
       <c r="C8" t="n">
-        <v>29.9</v>
+        <v>29.74</v>
       </c>
       <c r="D8" t="n">
-        <v>29.9</v>
+        <v>29.74</v>
       </c>
       <c r="E8" t="n">
-        <v>29.89</v>
+        <v>29.74</v>
       </c>
       <c r="F8" t="n">
-        <v>5000</v>
+        <v>10779</v>
       </c>
       <c r="G8" t="n">
-        <v>29.80933333333335</v>
+        <v>101351.6979999999</v>
       </c>
       <c r="H8" t="n">
-        <v>29.70766666666667</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>29.61</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +690,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.9</v>
+        <v>29.77</v>
       </c>
       <c r="C9" t="n">
-        <v>29.93</v>
+        <v>29.78</v>
       </c>
       <c r="D9" t="n">
-        <v>29.93</v>
+        <v>29.78</v>
       </c>
       <c r="E9" t="n">
-        <v>29.9</v>
+        <v>29.77</v>
       </c>
       <c r="F9" t="n">
-        <v>24733.5597</v>
+        <v>12187.5425</v>
       </c>
       <c r="G9" t="n">
-        <v>29.82400000000002</v>
+        <v>113539.2404999999</v>
       </c>
       <c r="H9" t="n">
-        <v>29.7145</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>29.74</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +731,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="C10" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="D10" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="E10" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="F10" t="n">
-        <v>2000</v>
+        <v>499.1424</v>
       </c>
       <c r="G10" t="n">
-        <v>29.83733333333335</v>
+        <v>114038.3828999999</v>
       </c>
       <c r="H10" t="n">
-        <v>29.72083333333334</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +770,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="C11" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="D11" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="E11" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="F11" t="n">
-        <v>58000</v>
+        <v>2054.572</v>
       </c>
       <c r="G11" t="n">
-        <v>29.84866666666668</v>
+        <v>114038.3828999999</v>
       </c>
       <c r="H11" t="n">
-        <v>29.72733333333334</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +809,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="C12" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="D12" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="E12" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="F12" t="n">
-        <v>2216.6217</v>
+        <v>3597.083</v>
       </c>
       <c r="G12" t="n">
-        <v>29.85400000000001</v>
+        <v>114038.3828999999</v>
       </c>
       <c r="H12" t="n">
-        <v>29.73566666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +848,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9</v>
+        <v>29.81</v>
       </c>
       <c r="C13" t="n">
-        <v>29.9</v>
+        <v>29.81</v>
       </c>
       <c r="D13" t="n">
-        <v>29.9</v>
+        <v>29.81</v>
       </c>
       <c r="E13" t="n">
-        <v>29.9</v>
+        <v>29.81</v>
       </c>
       <c r="F13" t="n">
-        <v>500</v>
+        <v>3075</v>
       </c>
       <c r="G13" t="n">
-        <v>29.85200000000001</v>
+        <v>110963.3828999999</v>
       </c>
       <c r="H13" t="n">
-        <v>29.73900000000001</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +887,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.9</v>
+        <v>29.72</v>
       </c>
       <c r="C14" t="n">
-        <v>29.9</v>
+        <v>29.72</v>
       </c>
       <c r="D14" t="n">
-        <v>29.9</v>
+        <v>29.72</v>
       </c>
       <c r="E14" t="n">
-        <v>29.9</v>
+        <v>29.72</v>
       </c>
       <c r="F14" t="n">
-        <v>1500</v>
+        <v>22966.5425</v>
       </c>
       <c r="G14" t="n">
-        <v>29.85000000000001</v>
+        <v>87996.84039999993</v>
       </c>
       <c r="H14" t="n">
-        <v>29.74850000000001</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,40 +926,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="C15" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="D15" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="E15" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="F15" t="n">
-        <v>7198.5399</v>
+        <v>3000</v>
       </c>
       <c r="G15" t="n">
-        <v>29.85266666666667</v>
+        <v>90996.84039999993</v>
       </c>
       <c r="H15" t="n">
-        <v>29.75616666666668</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="L15" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1012,44 +965,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="C16" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="D16" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="E16" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="F16" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="G16" t="n">
-        <v>29.85400000000001</v>
+        <v>94496.84039999993</v>
       </c>
       <c r="H16" t="n">
-        <v>29.76083333333334</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="L16" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1058,44 +1004,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="C17" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="D17" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="E17" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="F17" t="n">
         <v>500</v>
       </c>
       <c r="G17" t="n">
-        <v>29.86866666666667</v>
+        <v>94496.84039999993</v>
       </c>
       <c r="H17" t="n">
-        <v>29.76366666666668</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="L17" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1104,40 +1043,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="C18" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="D18" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="E18" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="F18" t="n">
-        <v>2000</v>
+        <v>4339.648</v>
       </c>
       <c r="G18" t="n">
-        <v>29.88533333333334</v>
+        <v>90157.19239999993</v>
       </c>
       <c r="H18" t="n">
-        <v>29.76650000000001</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="L18" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1146,44 +1082,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>29.88</v>
+        <v>29.79</v>
       </c>
       <c r="C19" t="n">
-        <v>29.88</v>
+        <v>29.79</v>
       </c>
       <c r="D19" t="n">
-        <v>29.88</v>
+        <v>29.79</v>
       </c>
       <c r="E19" t="n">
-        <v>29.88</v>
+        <v>29.79</v>
       </c>
       <c r="F19" t="n">
-        <v>500</v>
+        <v>2843.4421</v>
       </c>
       <c r="G19" t="n">
-        <v>29.88866666666667</v>
+        <v>87313.75029999993</v>
       </c>
       <c r="H19" t="n">
-        <v>29.77083333333335</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="L19" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1192,44 +1121,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="C20" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="D20" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="E20" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="F20" t="n">
-        <v>2106.3491</v>
+        <v>120142.5458</v>
       </c>
       <c r="G20" t="n">
-        <v>29.89466666666667</v>
+        <v>-32828.79550000008</v>
       </c>
       <c r="H20" t="n">
-        <v>29.77716666666669</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="L20" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,40 +1160,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="C21" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="D21" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="E21" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="F21" t="n">
-        <v>1500</v>
+        <v>23.2261</v>
       </c>
       <c r="G21" t="n">
-        <v>29.89466666666667</v>
+        <v>-32828.79550000008</v>
       </c>
       <c r="H21" t="n">
-        <v>29.78466666666669</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="L21" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1280,44 +1199,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="C22" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="D22" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="E22" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>38280.4547</v>
       </c>
       <c r="G22" t="n">
-        <v>29.89133333333334</v>
+        <v>-32828.79550000008</v>
       </c>
       <c r="H22" t="n">
-        <v>29.78833333333336</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="L22" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1326,44 +1238,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.86</v>
+        <v>29.71</v>
       </c>
       <c r="C23" t="n">
-        <v>29.86</v>
+        <v>29.71</v>
       </c>
       <c r="D23" t="n">
-        <v>29.86</v>
+        <v>29.71</v>
       </c>
       <c r="E23" t="n">
-        <v>29.86</v>
+        <v>29.71</v>
       </c>
       <c r="F23" t="n">
-        <v>7623.7536</v>
+        <v>32140.2687</v>
       </c>
       <c r="G23" t="n">
-        <v>29.88866666666667</v>
+        <v>-32828.79550000008</v>
       </c>
       <c r="H23" t="n">
-        <v>29.79166666666669</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="L23" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1372,40 +1277,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.86</v>
+        <v>29.71</v>
       </c>
       <c r="C24" t="n">
-        <v>29.86</v>
+        <v>29.7</v>
       </c>
       <c r="D24" t="n">
-        <v>29.86</v>
+        <v>29.71</v>
       </c>
       <c r="E24" t="n">
-        <v>29.86</v>
+        <v>29.7</v>
       </c>
       <c r="F24" t="n">
-        <v>1000</v>
+        <v>34836.9966</v>
       </c>
       <c r="G24" t="n">
-        <v>29.88400000000001</v>
+        <v>-67665.79210000008</v>
       </c>
       <c r="H24" t="n">
-        <v>29.79500000000002</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="L24" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1414,44 +1316,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.86</v>
+        <v>29.73</v>
       </c>
       <c r="C25" t="n">
-        <v>29.88</v>
+        <v>29.73</v>
       </c>
       <c r="D25" t="n">
-        <v>29.88</v>
+        <v>29.73</v>
       </c>
       <c r="E25" t="n">
-        <v>29.86</v>
+        <v>29.73</v>
       </c>
       <c r="F25" t="n">
-        <v>16500</v>
+        <v>34.00605449041372</v>
       </c>
       <c r="G25" t="n">
-        <v>29.88266666666668</v>
+        <v>-67631.78604550967</v>
       </c>
       <c r="H25" t="n">
-        <v>29.79966666666668</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="L25" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1460,44 +1355,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.88</v>
+        <v>29.82</v>
       </c>
       <c r="C26" t="n">
-        <v>29.88</v>
+        <v>29.82</v>
       </c>
       <c r="D26" t="n">
-        <v>29.88</v>
+        <v>29.82</v>
       </c>
       <c r="E26" t="n">
-        <v>29.88</v>
+        <v>29.82</v>
       </c>
       <c r="F26" t="n">
-        <v>10000</v>
+        <v>34.00402414486921</v>
       </c>
       <c r="G26" t="n">
-        <v>29.88133333333334</v>
+        <v>-67597.78202136479</v>
       </c>
       <c r="H26" t="n">
-        <v>29.80333333333335</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="L26" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1506,44 +1394,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>29.88</v>
+        <v>29.84</v>
       </c>
       <c r="C27" t="n">
-        <v>29.88</v>
+        <v>29.93</v>
       </c>
       <c r="D27" t="n">
-        <v>29.88</v>
+        <v>29.93</v>
       </c>
       <c r="E27" t="n">
-        <v>29.88</v>
+        <v>29.84</v>
       </c>
       <c r="F27" t="n">
-        <v>1378</v>
+        <v>75274.3496650852</v>
       </c>
       <c r="G27" t="n">
-        <v>29.88000000000001</v>
+        <v>7676.567643720409</v>
       </c>
       <c r="H27" t="n">
-        <v>29.80700000000002</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="L27" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1552,44 +1433,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.88</v>
+        <v>29.9</v>
       </c>
       <c r="C28" t="n">
-        <v>29.9</v>
+        <v>29.93</v>
       </c>
       <c r="D28" t="n">
-        <v>29.9</v>
+        <v>29.93</v>
       </c>
       <c r="E28" t="n">
-        <v>29.88</v>
+        <v>29.9</v>
       </c>
       <c r="F28" t="n">
-        <v>9500</v>
+        <v>38204.3098</v>
       </c>
       <c r="G28" t="n">
-        <v>29.88000000000001</v>
+        <v>7676.567643720409</v>
       </c>
       <c r="H28" t="n">
-        <v>29.81033333333335</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="L28" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1598,44 +1472,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="C29" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="D29" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="E29" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="F29" t="n">
-        <v>3457.035</v>
+        <v>5356.3584</v>
       </c>
       <c r="G29" t="n">
-        <v>29.88000000000001</v>
+        <v>2320.209243720409</v>
       </c>
       <c r="H29" t="n">
-        <v>29.81366666666669</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="L29" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1644,42 +1511,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="C30" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="D30" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="E30" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="F30" t="n">
-        <v>2950.0022</v>
+        <v>448.9306</v>
       </c>
       <c r="G30" t="n">
-        <v>29.88133333333334</v>
+        <v>2769.139843720409</v>
       </c>
       <c r="H30" t="n">
-        <v>29.81700000000002</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1688,42 +1550,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="C31" t="n">
-        <v>29.9</v>
+        <v>29.66</v>
       </c>
       <c r="D31" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="E31" t="n">
-        <v>29.9</v>
+        <v>29.66</v>
       </c>
       <c r="F31" t="n">
-        <v>3500</v>
+        <v>75274.3496</v>
       </c>
       <c r="G31" t="n">
-        <v>29.88266666666668</v>
+        <v>-72505.2097562796</v>
       </c>
       <c r="H31" t="n">
-        <v>29.82033333333336</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1732,42 +1589,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.9</v>
+        <v>29.63</v>
       </c>
       <c r="C32" t="n">
-        <v>29.9</v>
+        <v>29.63</v>
       </c>
       <c r="D32" t="n">
-        <v>29.9</v>
+        <v>29.63</v>
       </c>
       <c r="E32" t="n">
-        <v>29.9</v>
+        <v>29.63</v>
       </c>
       <c r="F32" t="n">
-        <v>3463.1789</v>
+        <v>17341.9809</v>
       </c>
       <c r="G32" t="n">
-        <v>29.88400000000001</v>
+        <v>-89847.19065627959</v>
       </c>
       <c r="H32" t="n">
-        <v>29.82400000000002</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,42 +1628,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.9</v>
+        <v>29.83</v>
       </c>
       <c r="C33" t="n">
-        <v>29.9</v>
+        <v>29.83</v>
       </c>
       <c r="D33" t="n">
-        <v>29.9</v>
+        <v>29.83</v>
       </c>
       <c r="E33" t="n">
-        <v>29.9</v>
+        <v>29.83</v>
       </c>
       <c r="F33" t="n">
-        <v>1293.8606</v>
+        <v>662.2925</v>
       </c>
       <c r="G33" t="n">
-        <v>29.88533333333334</v>
+        <v>-89184.8981562796</v>
       </c>
       <c r="H33" t="n">
-        <v>29.82733333333336</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1820,42 +1667,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>29.9</v>
+        <v>29.79</v>
       </c>
       <c r="C34" t="n">
-        <v>29.9</v>
+        <v>29.79</v>
       </c>
       <c r="D34" t="n">
-        <v>29.9</v>
+        <v>29.79</v>
       </c>
       <c r="E34" t="n">
-        <v>29.9</v>
+        <v>29.79</v>
       </c>
       <c r="F34" t="n">
-        <v>6398.075</v>
+        <v>1197.046</v>
       </c>
       <c r="G34" t="n">
-        <v>29.88666666666667</v>
+        <v>-90381.9441562796</v>
       </c>
       <c r="H34" t="n">
-        <v>29.83066666666669</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,44 +1706,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29.9</v>
+        <v>29.88</v>
       </c>
       <c r="C35" t="n">
-        <v>29.96</v>
+        <v>29.88</v>
       </c>
       <c r="D35" t="n">
-        <v>29.96</v>
+        <v>29.88</v>
       </c>
       <c r="E35" t="n">
-        <v>29.9</v>
+        <v>29.88</v>
       </c>
       <c r="F35" t="n">
-        <v>11638</v>
+        <v>5890.5966</v>
       </c>
       <c r="G35" t="n">
-        <v>29.892</v>
+        <v>-84491.34755627959</v>
       </c>
       <c r="H35" t="n">
-        <v>29.83483333333336</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="L35" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,44 +1745,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>29.96</v>
+        <v>29.93</v>
       </c>
       <c r="C36" t="n">
-        <v>30.14</v>
+        <v>29.93</v>
       </c>
       <c r="D36" t="n">
-        <v>30.14</v>
+        <v>29.93</v>
       </c>
       <c r="E36" t="n">
-        <v>29.96</v>
+        <v>29.93</v>
       </c>
       <c r="F36" t="n">
-        <v>13233.0736</v>
+        <v>4490.1177</v>
       </c>
       <c r="G36" t="n">
-        <v>29.90933333333334</v>
+        <v>-80001.22985627959</v>
       </c>
       <c r="H36" t="n">
-        <v>29.84100000000003</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>29.96</v>
-      </c>
-      <c r="L36" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,42 +1784,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>30.14</v>
+        <v>29.89</v>
       </c>
       <c r="C37" t="n">
-        <v>30.24</v>
+        <v>29.9</v>
       </c>
       <c r="D37" t="n">
-        <v>30.24</v>
+        <v>29.9</v>
       </c>
       <c r="E37" t="n">
-        <v>30.14</v>
+        <v>29.89</v>
       </c>
       <c r="F37" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="n">
-        <v>29.93333333333334</v>
+        <v>-85001.22985627959</v>
       </c>
       <c r="H37" t="n">
-        <v>29.84883333333336</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>29.93</v>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2000,42 +1825,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30.25</v>
+        <v>29.9</v>
       </c>
       <c r="C38" t="n">
-        <v>30.25</v>
+        <v>29.93</v>
       </c>
       <c r="D38" t="n">
-        <v>30.25</v>
+        <v>29.93</v>
       </c>
       <c r="E38" t="n">
-        <v>30.25</v>
+        <v>29.9</v>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>24733.5597</v>
       </c>
       <c r="G38" t="n">
-        <v>29.95933333333334</v>
+        <v>-60267.67015627959</v>
       </c>
       <c r="H38" t="n">
-        <v>29.85950000000003</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2044,42 +1864,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30.25</v>
+        <v>29.9</v>
       </c>
       <c r="C39" t="n">
-        <v>30.6</v>
+        <v>29.9</v>
       </c>
       <c r="D39" t="n">
-        <v>30.6</v>
+        <v>29.9</v>
       </c>
       <c r="E39" t="n">
-        <v>30.25</v>
+        <v>29.9</v>
       </c>
       <c r="F39" t="n">
-        <v>23320.1512</v>
+        <v>2000</v>
       </c>
       <c r="G39" t="n">
-        <v>30.00866666666667</v>
+        <v>-62267.67015627959</v>
       </c>
       <c r="H39" t="n">
-        <v>29.87383333333336</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.93</v>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2088,42 +1905,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30.6</v>
+        <v>29.9</v>
       </c>
       <c r="C40" t="n">
-        <v>30.83</v>
+        <v>29.9</v>
       </c>
       <c r="D40" t="n">
-        <v>30.83</v>
+        <v>29.9</v>
       </c>
       <c r="E40" t="n">
-        <v>30.52</v>
+        <v>29.9</v>
       </c>
       <c r="F40" t="n">
-        <v>44339.5496</v>
+        <v>58000</v>
       </c>
       <c r="G40" t="n">
-        <v>30.072</v>
+        <v>-62267.67015627959</v>
       </c>
       <c r="H40" t="n">
-        <v>29.89133333333336</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2132,42 +1944,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>30.7</v>
+        <v>29.9</v>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>29.9</v>
       </c>
       <c r="D41" t="n">
-        <v>31</v>
+        <v>29.9</v>
       </c>
       <c r="E41" t="n">
-        <v>30.7</v>
+        <v>29.9</v>
       </c>
       <c r="F41" t="n">
-        <v>21793.1797</v>
+        <v>2216.6217</v>
       </c>
       <c r="G41" t="n">
-        <v>30.14666666666667</v>
+        <v>-62267.67015627959</v>
       </c>
       <c r="H41" t="n">
-        <v>29.9106666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2176,42 +1983,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>31</v>
+        <v>29.9</v>
       </c>
       <c r="C42" t="n">
-        <v>30.8</v>
+        <v>29.9</v>
       </c>
       <c r="D42" t="n">
-        <v>31.26</v>
+        <v>29.9</v>
       </c>
       <c r="E42" t="n">
-        <v>30.8</v>
+        <v>29.9</v>
       </c>
       <c r="F42" t="n">
-        <v>158252.3549</v>
+        <v>500</v>
       </c>
       <c r="G42" t="n">
-        <v>30.20800000000001</v>
+        <v>-62267.67015627959</v>
       </c>
       <c r="H42" t="n">
-        <v>29.92666666666669</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2220,42 +2022,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31</v>
+        <v>29.9</v>
       </c>
       <c r="C43" t="n">
-        <v>30.9</v>
+        <v>29.9</v>
       </c>
       <c r="D43" t="n">
-        <v>31.09</v>
+        <v>29.9</v>
       </c>
       <c r="E43" t="n">
-        <v>30.81</v>
+        <v>29.9</v>
       </c>
       <c r="F43" t="n">
-        <v>58422.2186</v>
+        <v>1500</v>
       </c>
       <c r="G43" t="n">
-        <v>30.27466666666667</v>
+        <v>-62267.67015627959</v>
       </c>
       <c r="H43" t="n">
-        <v>29.94433333333336</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2264,42 +2061,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30.81</v>
+        <v>29.88</v>
       </c>
       <c r="C44" t="n">
-        <v>30.9</v>
+        <v>29.88</v>
       </c>
       <c r="D44" t="n">
-        <v>30.9</v>
+        <v>29.88</v>
       </c>
       <c r="E44" t="n">
-        <v>30.81</v>
+        <v>29.88</v>
       </c>
       <c r="F44" t="n">
-        <v>697.7186</v>
+        <v>7198.5399</v>
       </c>
       <c r="G44" t="n">
-        <v>30.34133333333334</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H44" t="n">
-        <v>29.96250000000003</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2308,42 +2100,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="C45" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="D45" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="E45" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="F45" t="n">
-        <v>7810.0997</v>
+        <v>6500</v>
       </c>
       <c r="G45" t="n">
-        <v>30.40133333333334</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H45" t="n">
-        <v>29.98050000000003</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2352,42 +2139,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.02</v>
+        <v>29.88</v>
       </c>
       <c r="C46" t="n">
-        <v>31.02</v>
+        <v>29.88</v>
       </c>
       <c r="D46" t="n">
-        <v>31.02</v>
+        <v>29.88</v>
       </c>
       <c r="E46" t="n">
-        <v>31.02</v>
+        <v>29.88</v>
       </c>
       <c r="F46" t="n">
-        <v>277.891</v>
+        <v>500</v>
       </c>
       <c r="G46" t="n">
-        <v>30.47600000000001</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H46" t="n">
-        <v>30.00083333333337</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>29.88</v>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2396,43 +2180,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="C47" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="D47" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="E47" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="F47" t="n">
-        <v>627.6933</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="n">
-        <v>30.53600000000001</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H47" t="n">
-        <v>30.01733333333337</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>29.88</v>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>1.026480241125251</v>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2440,36 +2221,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>31.01</v>
+        <v>29.88</v>
       </c>
       <c r="C48" t="n">
-        <v>31.01</v>
+        <v>29.88</v>
       </c>
       <c r="D48" t="n">
-        <v>31.01</v>
+        <v>29.88</v>
       </c>
       <c r="E48" t="n">
-        <v>31.01</v>
+        <v>29.88</v>
       </c>
       <c r="F48" t="n">
-        <v>128736.2512</v>
+        <v>500</v>
       </c>
       <c r="G48" t="n">
-        <v>30.61000000000001</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H48" t="n">
-        <v>30.03733333333337</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>29.88</v>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,36 +2262,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30.91</v>
+        <v>29.88</v>
       </c>
       <c r="C49" t="n">
-        <v>30.61</v>
+        <v>29.88</v>
       </c>
       <c r="D49" t="n">
-        <v>30.91</v>
+        <v>29.88</v>
       </c>
       <c r="E49" t="n">
-        <v>30.61</v>
+        <v>29.88</v>
       </c>
       <c r="F49" t="n">
-        <v>8835.963400000001</v>
+        <v>2106.3491</v>
       </c>
       <c r="G49" t="n">
-        <v>30.65733333333334</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H49" t="n">
-        <v>30.05083333333337</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>29.88</v>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2516,36 +2303,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>30.89</v>
+        <v>29.88</v>
       </c>
       <c r="C50" t="n">
-        <v>30.81</v>
+        <v>29.88</v>
       </c>
       <c r="D50" t="n">
-        <v>30.89</v>
+        <v>29.88</v>
       </c>
       <c r="E50" t="n">
-        <v>30.81</v>
+        <v>29.88</v>
       </c>
       <c r="F50" t="n">
-        <v>94021.4184</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="n">
-        <v>30.71400000000001</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H50" t="n">
-        <v>30.06783333333336</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>29.88</v>
       </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2554,36 +2344,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="C51" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="D51" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="E51" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="F51" t="n">
-        <v>22027.8094</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>30.75800000000002</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H51" t="n">
-        <v>30.08600000000003</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>29.88</v>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,36 +2385,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>30.8</v>
+        <v>29.86</v>
       </c>
       <c r="C52" t="n">
-        <v>30.8</v>
+        <v>29.86</v>
       </c>
       <c r="D52" t="n">
-        <v>30.8</v>
+        <v>29.86</v>
       </c>
       <c r="E52" t="n">
-        <v>30.8</v>
+        <v>29.86</v>
       </c>
       <c r="F52" t="n">
-        <v>9385.608700000001</v>
+        <v>7623.7536</v>
       </c>
       <c r="G52" t="n">
-        <v>30.79533333333335</v>
+        <v>-77089.96365627959</v>
       </c>
       <c r="H52" t="n">
-        <v>30.1041666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,36 +2424,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>30.61</v>
+        <v>29.86</v>
       </c>
       <c r="C53" t="n">
-        <v>30.5</v>
+        <v>29.86</v>
       </c>
       <c r="D53" t="n">
-        <v>30.61</v>
+        <v>29.86</v>
       </c>
       <c r="E53" t="n">
-        <v>30.5</v>
+        <v>29.86</v>
       </c>
       <c r="F53" t="n">
-        <v>17660.5756</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="n">
-        <v>30.81200000000002</v>
+        <v>-77089.96365627959</v>
       </c>
       <c r="H53" t="n">
-        <v>30.11733333333336</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>29.86</v>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2668,36 +2465,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>30.69</v>
+        <v>29.86</v>
       </c>
       <c r="C54" t="n">
-        <v>30.79</v>
+        <v>29.88</v>
       </c>
       <c r="D54" t="n">
-        <v>30.79</v>
+        <v>29.88</v>
       </c>
       <c r="E54" t="n">
-        <v>30.69</v>
+        <v>29.86</v>
       </c>
       <c r="F54" t="n">
-        <v>1806.969795388113</v>
+        <v>16500</v>
       </c>
       <c r="G54" t="n">
-        <v>30.82466666666668</v>
+        <v>-60589.96365627959</v>
       </c>
       <c r="H54" t="n">
-        <v>30.13533333333336</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,36 +2504,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>30.7</v>
+        <v>29.88</v>
       </c>
       <c r="C55" t="n">
-        <v>30.7</v>
+        <v>29.88</v>
       </c>
       <c r="D55" t="n">
-        <v>30.7</v>
+        <v>29.88</v>
       </c>
       <c r="E55" t="n">
-        <v>30.7</v>
+        <v>29.88</v>
       </c>
       <c r="F55" t="n">
-        <v>26.224</v>
+        <v>10000</v>
       </c>
       <c r="G55" t="n">
-        <v>30.81600000000002</v>
+        <v>-60589.96365627959</v>
       </c>
       <c r="H55" t="n">
-        <v>30.15200000000003</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2744,36 +2543,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>30.49</v>
+        <v>29.88</v>
       </c>
       <c r="C56" t="n">
-        <v>30.55</v>
+        <v>29.88</v>
       </c>
       <c r="D56" t="n">
-        <v>30.55</v>
+        <v>29.88</v>
       </c>
       <c r="E56" t="n">
-        <v>30.08</v>
+        <v>29.88</v>
       </c>
       <c r="F56" t="n">
-        <v>14111.8204</v>
+        <v>1378</v>
       </c>
       <c r="G56" t="n">
-        <v>30.78600000000002</v>
+        <v>-60589.96365627959</v>
       </c>
       <c r="H56" t="n">
-        <v>30.1656666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2782,36 +2582,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>30.59</v>
+        <v>29.88</v>
       </c>
       <c r="C57" t="n">
-        <v>30.55</v>
+        <v>29.9</v>
       </c>
       <c r="D57" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="E57" t="n">
-        <v>30.55</v>
+        <v>29.88</v>
       </c>
       <c r="F57" t="n">
-        <v>31611.0608</v>
+        <v>9500</v>
       </c>
       <c r="G57" t="n">
-        <v>30.76933333333335</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H57" t="n">
-        <v>30.17783333333336</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2820,36 +2621,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30.55</v>
+        <v>29.9</v>
       </c>
       <c r="C58" t="n">
-        <v>30.58</v>
+        <v>29.9</v>
       </c>
       <c r="D58" t="n">
-        <v>30.58</v>
+        <v>29.9</v>
       </c>
       <c r="E58" t="n">
-        <v>30.55</v>
+        <v>29.9</v>
       </c>
       <c r="F58" t="n">
-        <v>69393.63181262263</v>
+        <v>3457.035</v>
       </c>
       <c r="G58" t="n">
-        <v>30.74800000000002</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H58" t="n">
-        <v>30.18866666666669</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>29.9</v>
       </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2858,36 +2662,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>30.55</v>
+        <v>29.9</v>
       </c>
       <c r="C59" t="n">
-        <v>30.69</v>
+        <v>29.9</v>
       </c>
       <c r="D59" t="n">
-        <v>30.69</v>
+        <v>29.9</v>
       </c>
       <c r="E59" t="n">
-        <v>30.51</v>
+        <v>29.9</v>
       </c>
       <c r="F59" t="n">
-        <v>99539.6358</v>
+        <v>2950.0022</v>
       </c>
       <c r="G59" t="n">
-        <v>30.73400000000002</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H59" t="n">
-        <v>30.20133333333336</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>29.9</v>
       </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,36 +2703,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="C60" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="D60" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="E60" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="F60" t="n">
-        <v>20108.4588</v>
+        <v>3500</v>
       </c>
       <c r="G60" t="n">
-        <v>30.71400000000002</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H60" t="n">
-        <v>30.21233333333336</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>29.9</v>
       </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,36 +2744,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="C61" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="D61" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="E61" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="F61" t="n">
-        <v>836.52</v>
+        <v>3463.1789</v>
       </c>
       <c r="G61" t="n">
-        <v>30.68533333333335</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H61" t="n">
-        <v>30.22450000000003</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>29.9</v>
       </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2972,36 +2785,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>30.58</v>
+        <v>29.9</v>
       </c>
       <c r="C62" t="n">
-        <v>30.58</v>
+        <v>29.9</v>
       </c>
       <c r="D62" t="n">
-        <v>30.58</v>
+        <v>29.9</v>
       </c>
       <c r="E62" t="n">
-        <v>30.58</v>
+        <v>29.9</v>
       </c>
       <c r="F62" t="n">
-        <v>12005.6878</v>
+        <v>1293.8606</v>
       </c>
       <c r="G62" t="n">
-        <v>30.67066666666668</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H62" t="n">
-        <v>30.23983333333336</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>29.9</v>
       </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,36 +2826,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="C63" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="D63" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="E63" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F63" t="n">
-        <v>5367.1822</v>
+        <v>6398.075</v>
       </c>
       <c r="G63" t="n">
-        <v>30.61000000000002</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H63" t="n">
-        <v>30.24766666666669</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3048,36 +2865,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.29</v>
+        <v>29.9</v>
       </c>
       <c r="C64" t="n">
-        <v>30.29</v>
+        <v>29.96</v>
       </c>
       <c r="D64" t="n">
-        <v>30.29</v>
+        <v>29.96</v>
       </c>
       <c r="E64" t="n">
-        <v>30.29</v>
+        <v>29.9</v>
       </c>
       <c r="F64" t="n">
-        <v>17</v>
+        <v>11638</v>
       </c>
       <c r="G64" t="n">
-        <v>30.58866666666669</v>
+        <v>-39451.96365627959</v>
       </c>
       <c r="H64" t="n">
-        <v>30.25533333333335</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>29.9</v>
       </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3086,36 +2906,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>30.12</v>
+        <v>29.96</v>
       </c>
       <c r="C65" t="n">
-        <v>30.1</v>
+        <v>30.14</v>
       </c>
       <c r="D65" t="n">
-        <v>30.12</v>
+        <v>30.14</v>
       </c>
       <c r="E65" t="n">
-        <v>30.1</v>
+        <v>29.96</v>
       </c>
       <c r="F65" t="n">
-        <v>15000</v>
+        <v>13233.0736</v>
       </c>
       <c r="G65" t="n">
-        <v>30.54133333333335</v>
+        <v>-26218.89005627959</v>
       </c>
       <c r="H65" t="n">
-        <v>30.26050000000002</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,36 +2945,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>30.15</v>
+        <v>30.14</v>
       </c>
       <c r="C66" t="n">
-        <v>30.11</v>
+        <v>30.24</v>
       </c>
       <c r="D66" t="n">
-        <v>30.15</v>
+        <v>30.24</v>
       </c>
       <c r="E66" t="n">
-        <v>30.11</v>
+        <v>30.14</v>
       </c>
       <c r="F66" t="n">
-        <v>18973</v>
+        <v>10000</v>
       </c>
       <c r="G66" t="n">
-        <v>30.49533333333335</v>
+        <v>-16218.89005627959</v>
       </c>
       <c r="H66" t="n">
-        <v>30.26433333333335</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3162,36 +2984,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30.13</v>
+        <v>30.25</v>
       </c>
       <c r="C67" t="n">
-        <v>30.13</v>
+        <v>30.25</v>
       </c>
       <c r="D67" t="n">
-        <v>30.13</v>
+        <v>30.25</v>
       </c>
       <c r="E67" t="n">
-        <v>30.13</v>
+        <v>30.25</v>
       </c>
       <c r="F67" t="n">
-        <v>26742.6211</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>30.45066666666668</v>
+        <v>-15218.89005627959</v>
       </c>
       <c r="H67" t="n">
-        <v>30.26766666666668</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3203,33 +3026,34 @@
         <v>30.25</v>
       </c>
       <c r="C68" t="n">
-        <v>30.25</v>
+        <v>30.6</v>
       </c>
       <c r="D68" t="n">
-        <v>30.25</v>
+        <v>30.6</v>
       </c>
       <c r="E68" t="n">
         <v>30.25</v>
       </c>
       <c r="F68" t="n">
-        <v>4772.9072</v>
+        <v>23320.1512</v>
       </c>
       <c r="G68" t="n">
-        <v>30.43400000000002</v>
+        <v>8101.261143720407</v>
       </c>
       <c r="H68" t="n">
-        <v>30.27350000000002</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3238,36 +3062,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30.35</v>
+        <v>30.6</v>
       </c>
       <c r="C69" t="n">
-        <v>30.35</v>
+        <v>30.83</v>
       </c>
       <c r="D69" t="n">
-        <v>30.35</v>
+        <v>30.83</v>
       </c>
       <c r="E69" t="n">
-        <v>30.35</v>
+        <v>30.52</v>
       </c>
       <c r="F69" t="n">
-        <v>34.00329489291598</v>
+        <v>44339.5496</v>
       </c>
       <c r="G69" t="n">
-        <v>30.40466666666669</v>
+        <v>52440.8107437204</v>
       </c>
       <c r="H69" t="n">
-        <v>30.28050000000001</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3276,36 +3101,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30.36</v>
+        <v>30.7</v>
       </c>
       <c r="C70" t="n">
-        <v>30.36</v>
+        <v>31</v>
       </c>
       <c r="D70" t="n">
-        <v>30.36</v>
+        <v>31</v>
       </c>
       <c r="E70" t="n">
-        <v>30.36</v>
+        <v>30.7</v>
       </c>
       <c r="F70" t="n">
-        <v>3742.3795</v>
+        <v>21793.1797</v>
       </c>
       <c r="G70" t="n">
-        <v>30.38200000000002</v>
+        <v>74233.99044372039</v>
       </c>
       <c r="H70" t="n">
-        <v>30.28816666666668</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3314,36 +3140,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.36</v>
+        <v>31</v>
       </c>
       <c r="C71" t="n">
-        <v>30.59</v>
+        <v>30.8</v>
       </c>
       <c r="D71" t="n">
-        <v>30.6</v>
+        <v>31.26</v>
       </c>
       <c r="E71" t="n">
-        <v>30.36</v>
+        <v>30.8</v>
       </c>
       <c r="F71" t="n">
-        <v>18330.9717</v>
+        <v>158252.3549</v>
       </c>
       <c r="G71" t="n">
-        <v>30.38466666666669</v>
+        <v>-84018.36445627961</v>
       </c>
       <c r="H71" t="n">
-        <v>30.29966666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,74 +3179,70 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30.41</v>
+        <v>31</v>
       </c>
       <c r="C72" t="n">
-        <v>30.41</v>
+        <v>30.9</v>
       </c>
       <c r="D72" t="n">
-        <v>30.41</v>
+        <v>31.09</v>
       </c>
       <c r="E72" t="n">
-        <v>30.4</v>
+        <v>30.81</v>
       </c>
       <c r="F72" t="n">
-        <v>33268</v>
+        <v>58422.2186</v>
       </c>
       <c r="G72" t="n">
-        <v>30.37533333333335</v>
+        <v>-25596.14585627961</v>
       </c>
       <c r="H72" t="n">
-        <v>30.30816666666668</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>30.35</v>
+        <v>30.81</v>
       </c>
       <c r="C73" t="n">
-        <v>30.35</v>
+        <v>30.9</v>
       </c>
       <c r="D73" t="n">
-        <v>30.35</v>
+        <v>30.9</v>
       </c>
       <c r="E73" t="n">
-        <v>30.35</v>
+        <v>30.81</v>
       </c>
       <c r="F73" t="n">
-        <v>9999.9992</v>
+        <v>697.7186</v>
       </c>
       <c r="G73" t="n">
-        <v>30.36000000000002</v>
+        <v>-25596.14585627961</v>
       </c>
       <c r="H73" t="n">
-        <v>30.31566666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3428,36 +3251,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30.35</v>
+        <v>30.8</v>
       </c>
       <c r="C74" t="n">
-        <v>30.57</v>
+        <v>30.8</v>
       </c>
       <c r="D74" t="n">
-        <v>30.57</v>
+        <v>30.8</v>
       </c>
       <c r="E74" t="n">
-        <v>30.35</v>
+        <v>30.8</v>
       </c>
       <c r="F74" t="n">
-        <v>23112.0242</v>
+        <v>7810.0997</v>
       </c>
       <c r="G74" t="n">
-        <v>30.35200000000002</v>
+        <v>-33406.24555627961</v>
       </c>
       <c r="H74" t="n">
-        <v>30.32683333333334</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3466,36 +3286,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>30.57</v>
+        <v>31.02</v>
       </c>
       <c r="C75" t="n">
-        <v>30.57</v>
+        <v>31.02</v>
       </c>
       <c r="D75" t="n">
-        <v>30.57</v>
+        <v>31.02</v>
       </c>
       <c r="E75" t="n">
-        <v>30.57</v>
+        <v>31.02</v>
       </c>
       <c r="F75" t="n">
-        <v>1429.3765</v>
+        <v>277.891</v>
       </c>
       <c r="G75" t="n">
-        <v>30.35666666666669</v>
+        <v>-33128.35455627961</v>
       </c>
       <c r="H75" t="n">
-        <v>30.33833333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3504,36 +3321,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.42</v>
+        <v>30.8</v>
       </c>
       <c r="C76" t="n">
-        <v>30.42</v>
+        <v>30.8</v>
       </c>
       <c r="D76" t="n">
-        <v>30.42</v>
+        <v>30.8</v>
       </c>
       <c r="E76" t="n">
-        <v>30.42</v>
+        <v>30.8</v>
       </c>
       <c r="F76" t="n">
-        <v>591.6591</v>
+        <v>627.6933</v>
       </c>
       <c r="G76" t="n">
-        <v>30.34533333333336</v>
+        <v>-33756.04785627961</v>
       </c>
       <c r="H76" t="n">
-        <v>30.34733333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3542,36 +3356,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30.42</v>
+        <v>31.01</v>
       </c>
       <c r="C77" t="n">
-        <v>30.42</v>
+        <v>31.01</v>
       </c>
       <c r="D77" t="n">
-        <v>30.42</v>
+        <v>31.01</v>
       </c>
       <c r="E77" t="n">
-        <v>30.42</v>
+        <v>31.01</v>
       </c>
       <c r="F77" t="n">
-        <v>2303.5529</v>
+        <v>128736.2512</v>
       </c>
       <c r="G77" t="n">
-        <v>30.33466666666669</v>
+        <v>94980.20334372039</v>
       </c>
       <c r="H77" t="n">
-        <v>30.35633333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3580,36 +3391,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30.35</v>
+        <v>30.91</v>
       </c>
       <c r="C78" t="n">
-        <v>30.23</v>
+        <v>30.61</v>
       </c>
       <c r="D78" t="n">
-        <v>30.35</v>
+        <v>30.91</v>
       </c>
       <c r="E78" t="n">
-        <v>30.23</v>
+        <v>30.61</v>
       </c>
       <c r="F78" t="n">
-        <v>1144.1976</v>
+        <v>8835.963400000001</v>
       </c>
       <c r="G78" t="n">
-        <v>30.34333333333336</v>
+        <v>86144.2399437204</v>
       </c>
       <c r="H78" t="n">
-        <v>30.36216666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,36 +3426,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30.22</v>
+        <v>30.89</v>
       </c>
       <c r="C79" t="n">
-        <v>30.22</v>
+        <v>30.81</v>
       </c>
       <c r="D79" t="n">
-        <v>30.22</v>
+        <v>30.89</v>
       </c>
       <c r="E79" t="n">
-        <v>30.22</v>
+        <v>30.81</v>
       </c>
       <c r="F79" t="n">
-        <v>10000</v>
+        <v>94021.4184</v>
       </c>
       <c r="G79" t="n">
-        <v>30.33866666666669</v>
+        <v>180165.6583437204</v>
       </c>
       <c r="H79" t="n">
-        <v>30.36783333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3656,36 +3461,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>30.12</v>
+        <v>30.8</v>
       </c>
       <c r="C80" t="n">
-        <v>30.12</v>
+        <v>30.8</v>
       </c>
       <c r="D80" t="n">
-        <v>30.12</v>
+        <v>30.8</v>
       </c>
       <c r="E80" t="n">
-        <v>30.12</v>
+        <v>30.8</v>
       </c>
       <c r="F80" t="n">
-        <v>37749.5397</v>
+        <v>22027.8094</v>
       </c>
       <c r="G80" t="n">
-        <v>30.34000000000002</v>
+        <v>158137.8489437204</v>
       </c>
       <c r="H80" t="n">
-        <v>30.37183333333332</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3694,36 +3496,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>30.38</v>
+        <v>30.8</v>
       </c>
       <c r="C81" t="n">
-        <v>30.38</v>
+        <v>30.8</v>
       </c>
       <c r="D81" t="n">
-        <v>30.38</v>
+        <v>30.8</v>
       </c>
       <c r="E81" t="n">
-        <v>30.38</v>
+        <v>30.8</v>
       </c>
       <c r="F81" t="n">
-        <v>34.00263331138907</v>
+        <v>9385.608700000001</v>
       </c>
       <c r="G81" t="n">
-        <v>30.35800000000002</v>
+        <v>158137.8489437204</v>
       </c>
       <c r="H81" t="n">
-        <v>30.38016666666666</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3732,36 +3531,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>30.39</v>
+        <v>30.61</v>
       </c>
       <c r="C82" t="n">
-        <v>30.39</v>
+        <v>30.5</v>
       </c>
       <c r="D82" t="n">
-        <v>30.39</v>
+        <v>30.61</v>
       </c>
       <c r="E82" t="n">
-        <v>30.39</v>
+        <v>30.5</v>
       </c>
       <c r="F82" t="n">
-        <v>33.99144455412965</v>
+        <v>17660.5756</v>
       </c>
       <c r="G82" t="n">
-        <v>30.37533333333335</v>
+        <v>140477.2733437204</v>
       </c>
       <c r="H82" t="n">
-        <v>30.38866666666666</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,36 +3566,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>30.46</v>
+        <v>30.69</v>
       </c>
       <c r="C83" t="n">
-        <v>30.46</v>
+        <v>30.79</v>
       </c>
       <c r="D83" t="n">
-        <v>30.46</v>
+        <v>30.79</v>
       </c>
       <c r="E83" t="n">
-        <v>30.46</v>
+        <v>30.69</v>
       </c>
       <c r="F83" t="n">
-        <v>34.0118187787262</v>
+        <v>1806.969795388113</v>
       </c>
       <c r="G83" t="n">
-        <v>30.38933333333335</v>
+        <v>142284.2431391085</v>
       </c>
       <c r="H83" t="n">
-        <v>30.39866666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,36 +3601,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="C84" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="D84" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="E84" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="F84" t="n">
-        <v>1879.996732124183</v>
+        <v>26.224</v>
       </c>
       <c r="G84" t="n">
-        <v>30.40600000000002</v>
+        <v>142258.0191391085</v>
       </c>
       <c r="H84" t="n">
-        <v>30.41099999999999</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,36 +3636,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>30.59</v>
+        <v>30.49</v>
       </c>
       <c r="C85" t="n">
-        <v>30.59</v>
+        <v>30.55</v>
       </c>
       <c r="D85" t="n">
-        <v>30.59</v>
+        <v>30.55</v>
       </c>
       <c r="E85" t="n">
-        <v>30.59</v>
+        <v>30.08</v>
       </c>
       <c r="F85" t="n">
-        <v>13586.0831</v>
+        <v>14111.8204</v>
       </c>
       <c r="G85" t="n">
-        <v>30.42133333333335</v>
+        <v>128146.1987391085</v>
       </c>
       <c r="H85" t="n">
-        <v>30.42283333333332</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3884,36 +3671,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>30.68</v>
+        <v>30.59</v>
       </c>
       <c r="C86" t="n">
-        <v>30.68</v>
+        <v>30.55</v>
       </c>
       <c r="D86" t="n">
-        <v>30.68</v>
+        <v>30.59</v>
       </c>
       <c r="E86" t="n">
-        <v>30.68</v>
+        <v>30.55</v>
       </c>
       <c r="F86" t="n">
-        <v>33.99608865710561</v>
+        <v>31611.0608</v>
       </c>
       <c r="G86" t="n">
-        <v>30.42733333333335</v>
+        <v>128146.1987391085</v>
       </c>
       <c r="H86" t="n">
-        <v>30.43616666666666</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,36 +3706,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>30.7</v>
+        <v>30.55</v>
       </c>
       <c r="C87" t="n">
-        <v>30.7</v>
+        <v>30.58</v>
       </c>
       <c r="D87" t="n">
-        <v>30.7</v>
+        <v>30.58</v>
       </c>
       <c r="E87" t="n">
-        <v>30.7</v>
+        <v>30.55</v>
       </c>
       <c r="F87" t="n">
-        <v>31177.8867</v>
+        <v>69393.63181262263</v>
       </c>
       <c r="G87" t="n">
-        <v>30.44666666666668</v>
+        <v>197539.8305517311</v>
       </c>
       <c r="H87" t="n">
-        <v>30.44983333333332</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,36 +3741,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="C88" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="D88" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="E88" t="n">
         <v>30.51</v>
       </c>
-      <c r="C88" t="n">
-        <v>30.33</v>
-      </c>
-      <c r="D88" t="n">
-        <v>30.51</v>
-      </c>
-      <c r="E88" t="n">
-        <v>30.33</v>
-      </c>
       <c r="F88" t="n">
-        <v>212358.0843</v>
+        <v>99539.6358</v>
       </c>
       <c r="G88" t="n">
-        <v>30.44533333333334</v>
+        <v>297079.4663517312</v>
       </c>
       <c r="H88" t="n">
-        <v>30.45699999999999</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3998,36 +3776,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="C89" t="n">
         <v>30.5</v>
       </c>
-      <c r="C89" t="n">
-        <v>30.6</v>
-      </c>
       <c r="D89" t="n">
-        <v>30.6</v>
+        <v>30.59</v>
       </c>
       <c r="E89" t="n">
         <v>30.5</v>
       </c>
       <c r="F89" t="n">
-        <v>3539.358428104575</v>
+        <v>20108.4588</v>
       </c>
       <c r="G89" t="n">
-        <v>30.44733333333335</v>
+        <v>276971.0075517311</v>
       </c>
       <c r="H89" t="n">
-        <v>30.46866666666665</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,36 +3811,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>30.66</v>
+        <v>30.59</v>
       </c>
       <c r="C90" t="n">
-        <v>30.66</v>
+        <v>30.59</v>
       </c>
       <c r="D90" t="n">
-        <v>30.66</v>
+        <v>30.59</v>
       </c>
       <c r="E90" t="n">
-        <v>30.66</v>
+        <v>30.59</v>
       </c>
       <c r="F90" t="n">
-        <v>1996</v>
+        <v>836.52</v>
       </c>
       <c r="G90" t="n">
-        <v>30.45333333333335</v>
+        <v>277807.5275517312</v>
       </c>
       <c r="H90" t="n">
-        <v>30.48133333333332</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4074,36 +3846,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30.38</v>
+        <v>30.58</v>
       </c>
       <c r="C91" t="n">
-        <v>30.38</v>
+        <v>30.58</v>
       </c>
       <c r="D91" t="n">
-        <v>30.38</v>
+        <v>30.58</v>
       </c>
       <c r="E91" t="n">
-        <v>30.38</v>
+        <v>30.58</v>
       </c>
       <c r="F91" t="n">
-        <v>4100</v>
+        <v>12005.6878</v>
       </c>
       <c r="G91" t="n">
-        <v>30.45066666666668</v>
+        <v>265801.8397517311</v>
       </c>
       <c r="H91" t="n">
-        <v>30.48933333333332</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4112,36 +3881,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="C92" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="D92" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="E92" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="F92" t="n">
-        <v>28297.1463</v>
+        <v>5367.1822</v>
       </c>
       <c r="G92" t="n">
-        <v>30.44933333333335</v>
+        <v>260434.6575517311</v>
       </c>
       <c r="H92" t="n">
-        <v>30.49766666666665</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,36 +3916,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30.4</v>
+        <v>30.29</v>
       </c>
       <c r="C93" t="n">
-        <v>30.4</v>
+        <v>30.29</v>
       </c>
       <c r="D93" t="n">
-        <v>30.4</v>
+        <v>30.29</v>
       </c>
       <c r="E93" t="n">
-        <v>30.4</v>
+        <v>30.29</v>
       </c>
       <c r="F93" t="n">
-        <v>2901</v>
+        <v>17</v>
       </c>
       <c r="G93" t="n">
-        <v>30.46066666666668</v>
+        <v>260451.6575517311</v>
       </c>
       <c r="H93" t="n">
-        <v>30.50599999999998</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4188,36 +3951,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>30.4</v>
+        <v>30.12</v>
       </c>
       <c r="C94" t="n">
-        <v>30.18</v>
+        <v>30.1</v>
       </c>
       <c r="D94" t="n">
-        <v>30.4</v>
+        <v>30.12</v>
       </c>
       <c r="E94" t="n">
-        <v>30.18</v>
+        <v>30.1</v>
       </c>
       <c r="F94" t="n">
-        <v>164253.6234</v>
+        <v>15000</v>
       </c>
       <c r="G94" t="n">
-        <v>30.45800000000001</v>
+        <v>245451.6575517311</v>
       </c>
       <c r="H94" t="n">
-        <v>30.51066666666665</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4226,36 +3986,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>30.6</v>
+        <v>30.15</v>
       </c>
       <c r="C95" t="n">
-        <v>30.6</v>
+        <v>30.11</v>
       </c>
       <c r="D95" t="n">
-        <v>30.6</v>
+        <v>30.15</v>
       </c>
       <c r="E95" t="n">
-        <v>30.6</v>
+        <v>30.11</v>
       </c>
       <c r="F95" t="n">
-        <v>7620.9995</v>
+        <v>18973</v>
       </c>
       <c r="G95" t="n">
-        <v>30.49000000000001</v>
+        <v>264424.6575517311</v>
       </c>
       <c r="H95" t="n">
-        <v>30.52133333333331</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,36 +4021,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>30.34</v>
+        <v>30.13</v>
       </c>
       <c r="C96" t="n">
-        <v>30.34</v>
+        <v>30.13</v>
       </c>
       <c r="D96" t="n">
-        <v>30.34</v>
+        <v>30.13</v>
       </c>
       <c r="E96" t="n">
-        <v>30.34</v>
+        <v>30.13</v>
       </c>
       <c r="F96" t="n">
-        <v>18371.9301</v>
+        <v>26742.6211</v>
       </c>
       <c r="G96" t="n">
-        <v>30.48733333333334</v>
+        <v>291167.2786517311</v>
       </c>
       <c r="H96" t="n">
-        <v>30.52466666666664</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4302,36 +4056,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>30.3</v>
+        <v>30.25</v>
       </c>
       <c r="C97" t="n">
-        <v>30.5</v>
+        <v>30.25</v>
       </c>
       <c r="D97" t="n">
-        <v>30.5</v>
+        <v>30.25</v>
       </c>
       <c r="E97" t="n">
-        <v>30.3</v>
+        <v>30.25</v>
       </c>
       <c r="F97" t="n">
-        <v>33540.0645</v>
+        <v>4772.9072</v>
       </c>
       <c r="G97" t="n">
-        <v>30.49466666666667</v>
+        <v>295940.1858517311</v>
       </c>
       <c r="H97" t="n">
-        <v>30.52899999999998</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,36 +4091,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30.18</v>
+        <v>30.35</v>
       </c>
       <c r="C98" t="n">
-        <v>30.18</v>
+        <v>30.35</v>
       </c>
       <c r="D98" t="n">
-        <v>30.18</v>
+        <v>30.35</v>
       </c>
       <c r="E98" t="n">
-        <v>30.18</v>
+        <v>30.35</v>
       </c>
       <c r="F98" t="n">
-        <v>12495.7474</v>
+        <v>34.00329489291598</v>
       </c>
       <c r="G98" t="n">
-        <v>30.47600000000001</v>
+        <v>295974.189146624</v>
       </c>
       <c r="H98" t="n">
-        <v>30.52783333333331</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,36 +4126,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>30.2</v>
+        <v>30.36</v>
       </c>
       <c r="C99" t="n">
-        <v>30.2</v>
+        <v>30.36</v>
       </c>
       <c r="D99" t="n">
-        <v>30.2</v>
+        <v>30.36</v>
       </c>
       <c r="E99" t="n">
-        <v>30.2</v>
+        <v>30.36</v>
       </c>
       <c r="F99" t="n">
-        <v>34.00662251655629</v>
+        <v>3742.3795</v>
       </c>
       <c r="G99" t="n">
-        <v>30.44933333333334</v>
+        <v>299716.568646624</v>
       </c>
       <c r="H99" t="n">
-        <v>30.52116666666665</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+        <v>30.35</v>
+      </c>
+      <c r="K99" t="n">
+        <v>30.35</v>
+      </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,36 +4165,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>30.13</v>
+        <v>30.36</v>
       </c>
       <c r="C100" t="n">
-        <v>30.13</v>
+        <v>30.59</v>
       </c>
       <c r="D100" t="n">
-        <v>30.13</v>
+        <v>30.6</v>
       </c>
       <c r="E100" t="n">
-        <v>30.13</v>
+        <v>30.36</v>
       </c>
       <c r="F100" t="n">
-        <v>1380.9048</v>
+        <v>18330.9717</v>
       </c>
       <c r="G100" t="n">
-        <v>30.41866666666668</v>
+        <v>318047.540346624</v>
       </c>
       <c r="H100" t="n">
-        <v>30.50949999999998</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="K100" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,36 +4208,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>30.19</v>
+        <v>30.41</v>
       </c>
       <c r="C101" t="n">
-        <v>30.18</v>
+        <v>30.41</v>
       </c>
       <c r="D101" t="n">
-        <v>30.19</v>
+        <v>30.41</v>
       </c>
       <c r="E101" t="n">
-        <v>30.12</v>
+        <v>30.4</v>
       </c>
       <c r="F101" t="n">
-        <v>80601.22488702348</v>
+        <v>33268</v>
       </c>
       <c r="G101" t="n">
-        <v>30.38533333333334</v>
+        <v>284779.540346624</v>
       </c>
       <c r="H101" t="n">
-        <v>30.49583333333332</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,36 +4249,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>30.19</v>
+        <v>30.35</v>
       </c>
       <c r="C102" t="n">
-        <v>30.12</v>
+        <v>30.35</v>
       </c>
       <c r="D102" t="n">
-        <v>30.19</v>
+        <v>30.35</v>
       </c>
       <c r="E102" t="n">
-        <v>30.12</v>
+        <v>30.35</v>
       </c>
       <c r="F102" t="n">
-        <v>11538.23736316661</v>
+        <v>9999.9992</v>
       </c>
       <c r="G102" t="n">
-        <v>30.34666666666668</v>
+        <v>274779.541146624</v>
       </c>
       <c r="H102" t="n">
-        <v>30.48449999999998</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,36 +4284,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>30.19</v>
+        <v>30.35</v>
       </c>
       <c r="C103" t="n">
-        <v>30.19</v>
+        <v>30.57</v>
       </c>
       <c r="D103" t="n">
-        <v>30.19</v>
+        <v>30.57</v>
       </c>
       <c r="E103" t="n">
-        <v>30.19</v>
+        <v>30.35</v>
       </c>
       <c r="F103" t="n">
-        <v>33.98476316661146</v>
+        <v>23112.0242</v>
       </c>
       <c r="G103" t="n">
-        <v>30.33733333333334</v>
+        <v>297891.5653466239</v>
       </c>
       <c r="H103" t="n">
-        <v>30.47266666666665</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4568,36 +4319,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>30.2</v>
+        <v>30.57</v>
       </c>
       <c r="C104" t="n">
-        <v>30.2</v>
+        <v>30.57</v>
       </c>
       <c r="D104" t="n">
-        <v>30.2</v>
+        <v>30.57</v>
       </c>
       <c r="E104" t="n">
-        <v>30.2</v>
+        <v>30.57</v>
       </c>
       <c r="F104" t="n">
-        <v>34.00662251655629</v>
+        <v>1429.3765</v>
       </c>
       <c r="G104" t="n">
-        <v>30.31066666666668</v>
+        <v>297891.5653466239</v>
       </c>
       <c r="H104" t="n">
-        <v>30.46099999999998</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4606,36 +4354,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="C105" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="D105" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="E105" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="F105" t="n">
-        <v>1473.5982</v>
+        <v>591.6591</v>
       </c>
       <c r="G105" t="n">
-        <v>30.27533333333334</v>
+        <v>297299.906246624</v>
       </c>
       <c r="H105" t="n">
-        <v>30.44983333333332</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4644,36 +4389,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="C106" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="D106" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="E106" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="F106" t="n">
-        <v>1432.2564</v>
+        <v>2303.5529</v>
       </c>
       <c r="G106" t="n">
-        <v>30.25866666666667</v>
+        <v>297299.906246624</v>
       </c>
       <c r="H106" t="n">
-        <v>30.43499999999999</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,36 +4424,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>30.18</v>
+        <v>30.35</v>
       </c>
       <c r="C107" t="n">
-        <v>30.18</v>
+        <v>30.23</v>
       </c>
       <c r="D107" t="n">
-        <v>30.18</v>
+        <v>30.35</v>
       </c>
       <c r="E107" t="n">
-        <v>30.18</v>
+        <v>30.23</v>
       </c>
       <c r="F107" t="n">
-        <v>2256.3295</v>
+        <v>1144.1976</v>
       </c>
       <c r="G107" t="n">
-        <v>30.24400000000001</v>
+        <v>296155.7086466239</v>
       </c>
       <c r="H107" t="n">
-        <v>30.42466666666666</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4720,36 +4459,1048 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>30.19</v>
+        <v>30.22</v>
       </c>
       <c r="C108" t="n">
-        <v>30.19</v>
+        <v>30.22</v>
       </c>
       <c r="D108" t="n">
-        <v>30.19</v>
+        <v>30.22</v>
       </c>
       <c r="E108" t="n">
-        <v>30.19</v>
+        <v>30.22</v>
       </c>
       <c r="F108" t="n">
-        <v>558.13</v>
+        <v>10000</v>
       </c>
       <c r="G108" t="n">
-        <v>30.23000000000001</v>
+        <v>286155.7086466239</v>
       </c>
       <c r="H108" t="n">
-        <v>30.41099999999999</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="C109" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="D109" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="E109" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="F109" t="n">
+        <v>37749.5397</v>
+      </c>
+      <c r="G109" t="n">
+        <v>248406.1689466239</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="C110" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="D110" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="E110" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="F110" t="n">
+        <v>34.00263331138907</v>
+      </c>
+      <c r="G110" t="n">
+        <v>248440.1715799353</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="C111" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="D111" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="E111" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="F111" t="n">
+        <v>33.99144455412965</v>
+      </c>
+      <c r="G111" t="n">
+        <v>248474.1630244894</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="C112" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="D112" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="E112" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="F112" t="n">
+        <v>34.0118187787262</v>
+      </c>
+      <c r="G112" t="n">
+        <v>248508.1748432682</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D113" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1879.996732124183</v>
+      </c>
+      <c r="G113" t="n">
+        <v>250388.1715753924</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="C114" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="D114" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="E114" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="F114" t="n">
+        <v>13586.0831</v>
+      </c>
+      <c r="G114" t="n">
+        <v>236802.0884753924</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="C115" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="D115" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="E115" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="F115" t="n">
+        <v>33.99608865710561</v>
+      </c>
+      <c r="G115" t="n">
+        <v>236836.0845640495</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F116" t="n">
+        <v>31177.8867</v>
+      </c>
+      <c r="G116" t="n">
+        <v>268013.9712640495</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="C117" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="D117" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="E117" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="F117" t="n">
+        <v>212358.0843</v>
+      </c>
+      <c r="G117" t="n">
+        <v>55655.88696404948</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3539.358428104575</v>
+      </c>
+      <c r="G118" t="n">
+        <v>59195.24539215406</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="C119" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="D119" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="E119" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G119" t="n">
+        <v>61191.24539215406</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="C120" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="D120" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="E120" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="F120" t="n">
+        <v>4100</v>
+      </c>
+      <c r="G120" t="n">
+        <v>57091.24539215406</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>28297.1463</v>
+      </c>
+      <c r="G121" t="n">
+        <v>85388.39169215405</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D122" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2901</v>
+      </c>
+      <c r="G122" t="n">
+        <v>85388.39169215405</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="D123" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="F123" t="n">
+        <v>164253.6234</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-78865.23170784596</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7620.9995</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-71244.23220784595</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="C125" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="D125" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="E125" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="F125" t="n">
+        <v>18371.9301</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-89616.16230784595</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>33540.0645</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-56076.09780784595</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="C127" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="D127" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="E127" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12495.7474</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-68571.84520784595</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>34.00662251655629</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-68537.8385853294</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="C129" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="D129" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="E129" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1380.9048</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-69918.74338532941</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="C130" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="D130" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="E130" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="F130" t="n">
+        <v>80601.22488702348</v>
+      </c>
+      <c r="G130" t="n">
+        <v>10682.48150169407</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="C131" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="D131" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="E131" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="F131" t="n">
+        <v>11538.23736316661</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-855.7558614725403</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="C132" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="D132" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="E132" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="F132" t="n">
+        <v>33.98476316661146</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-821.7710983059289</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>34.00662251655629</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-787.7644757893727</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="C134" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="D134" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="E134" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1473.5982</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2261.362675789373</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="C135" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="D135" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="E135" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1432.2564</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2261.362675789373</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="C136" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="D136" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="E136" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2256.3295</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-5.033175789372763</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="C137" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="D137" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="E137" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="F137" t="n">
+        <v>558.13</v>
+      </c>
+      <c r="G137" t="n">
+        <v>553.0968242106272</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-13 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -643,6 +653,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -684,6 +695,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -725,6 +737,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,6 +777,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -803,6 +817,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,6 +857,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -881,6 +897,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -920,6 +937,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -959,6 +977,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -998,6 +1017,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1037,6 +1057,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1076,6 +1097,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1115,6 +1137,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1154,6 +1177,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1193,6 +1217,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1232,6 +1257,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1271,6 +1297,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1310,6 +1337,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1349,6 +1377,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1388,6 +1417,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1427,6 +1457,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1466,6 +1497,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1505,6 +1537,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1544,6 +1577,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1583,6 +1617,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1622,6 +1657,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1661,6 +1697,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1700,6 +1737,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1739,6 +1777,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1778,6 +1817,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1819,6 +1859,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1858,6 +1899,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1899,6 +1941,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1938,6 +1981,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1977,6 +2021,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2016,6 +2061,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2055,6 +2101,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2094,6 +2141,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2133,6 +2181,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2174,6 +2223,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2215,6 +2265,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2256,6 +2307,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2297,6 +2349,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2338,6 +2391,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2379,6 +2433,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2418,6 +2473,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2459,6 +2515,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2498,6 +2555,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2537,6 +2595,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2576,6 +2635,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2615,6 +2675,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2656,6 +2717,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2697,6 +2759,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2738,6 +2801,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2779,6 +2843,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2820,6 +2885,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2859,6 +2925,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2900,6 +2967,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2939,6 +3007,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2978,6 +3047,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3017,6 +3087,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3056,6 +3127,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3095,6 +3167,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3134,6 +3207,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3161,17 +3235,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>1.002356902356902</v>
       </c>
     </row>
     <row r="72">
@@ -3204,12 +3279,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3237,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3245,6 +3319,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3272,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3280,6 +3355,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3315,6 +3391,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3342,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3350,6 +3427,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3385,6 +3463,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3420,6 +3499,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3447,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3455,6 +3535,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3482,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3490,6 +3571,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3517,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3525,6 +3607,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3552,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3560,6 +3643,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3595,6 +3679,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3622,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3630,6 +3715,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3657,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3665,6 +3751,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3692,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3700,6 +3787,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3727,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3735,6 +3823,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3762,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3770,6 +3859,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3805,6 +3895,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3840,6 +3931,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3875,6 +3967,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3910,6 +4003,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3937,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3945,6 +4039,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3972,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3980,6 +4075,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4015,6 +4111,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4042,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4050,6 +4147,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4077,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4085,6 +4183,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4112,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4120,6 +4219,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4147,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
         <v>30.35</v>
@@ -4159,6 +4259,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4202,6 +4303,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4243,6 +4345,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4278,6 +4381,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4305,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4313,6 +4417,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4348,6 +4453,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4383,6 +4489,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4418,6 +4525,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4453,6 +4561,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4480,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4488,6 +4597,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4515,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4523,6 +4633,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4550,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4558,6 +4669,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4585,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4593,6 +4705,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4628,6 +4741,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4655,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4663,6 +4777,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4698,6 +4813,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4725,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4733,6 +4849,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4768,6 +4885,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4803,6 +4921,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4838,6 +4957,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4873,6 +4993,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4908,6 +5029,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4943,6 +5065,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4978,6 +5101,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5013,6 +5137,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5048,6 +5173,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5083,6 +5209,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5118,6 +5245,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5153,6 +5281,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5188,6 +5317,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5223,6 +5353,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5258,6 +5389,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5293,6 +5425,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5328,6 +5461,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5363,6 +5497,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5398,6 +5533,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5433,6 +5569,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5468,6 +5605,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5503,6 +5641,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-13 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.7</v>
+        <v>29.32</v>
       </c>
       <c r="C2" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="D2" t="n">
-        <v>29.71</v>
+        <v>29.32</v>
       </c>
       <c r="E2" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="F2" t="n">
-        <v>4500</v>
+        <v>16412.2014</v>
       </c>
       <c r="G2" t="n">
-        <v>76279.69799999993</v>
+        <v>133611.0508</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -486,19 +486,23 @@
         <v>29.7</v>
       </c>
       <c r="F3" t="n">
-        <v>35102.495</v>
+        <v>26500</v>
       </c>
       <c r="G3" t="n">
-        <v>76279.69799999993</v>
+        <v>160111.0508</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29.3</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -522,20 +526,28 @@
         <v>29.7</v>
       </c>
       <c r="F4" t="n">
-        <v>5329</v>
+        <v>11876.0826</v>
       </c>
       <c r="G4" t="n">
-        <v>81608.69799999993</v>
+        <v>171987.1334</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -549,29 +561,37 @@
         <v>29.71</v>
       </c>
       <c r="C5" t="n">
-        <v>29.77</v>
+        <v>29.71</v>
       </c>
       <c r="D5" t="n">
-        <v>29.77</v>
+        <v>29.71</v>
       </c>
       <c r="E5" t="n">
         <v>29.71</v>
       </c>
       <c r="F5" t="n">
-        <v>9000</v>
+        <v>35</v>
       </c>
       <c r="G5" t="n">
-        <v>90608.69799999993</v>
+        <v>171987.1334</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K5" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.77</v>
+        <v>29.52</v>
       </c>
       <c r="C6" t="n">
-        <v>29.77</v>
+        <v>29.52</v>
       </c>
       <c r="D6" t="n">
-        <v>29.77</v>
+        <v>29.52</v>
       </c>
       <c r="E6" t="n">
-        <v>29.77</v>
+        <v>29.52</v>
       </c>
       <c r="F6" t="n">
-        <v>6370.8251</v>
+        <v>1992</v>
       </c>
       <c r="G6" t="n">
-        <v>90608.69799999993</v>
+        <v>169995.1334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,38 +638,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.73</v>
+        <v>29.52</v>
       </c>
       <c r="C7" t="n">
-        <v>29.61</v>
+        <v>29.52</v>
       </c>
       <c r="D7" t="n">
-        <v>29.73</v>
+        <v>29.52</v>
       </c>
       <c r="E7" t="n">
-        <v>29.61</v>
+        <v>29.52</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>1536.9186</v>
       </c>
       <c r="G7" t="n">
-        <v>90572.69799999993</v>
+        <v>169995.1334</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>29.77</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -660,38 +674,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.74</v>
+        <v>29.52</v>
       </c>
       <c r="C8" t="n">
-        <v>29.74</v>
+        <v>29.52</v>
       </c>
       <c r="D8" t="n">
-        <v>29.74</v>
+        <v>29.52</v>
       </c>
       <c r="E8" t="n">
-        <v>29.74</v>
+        <v>29.52</v>
       </c>
       <c r="F8" t="n">
-        <v>10779</v>
+        <v>1364.0843</v>
       </c>
       <c r="G8" t="n">
-        <v>101351.6979999999</v>
+        <v>169995.1334</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>29.61</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -702,38 +710,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.77</v>
+        <v>29.52</v>
       </c>
       <c r="C9" t="n">
-        <v>29.78</v>
+        <v>29.51</v>
       </c>
       <c r="D9" t="n">
-        <v>29.78</v>
+        <v>29.52</v>
       </c>
       <c r="E9" t="n">
-        <v>29.77</v>
+        <v>29.51</v>
       </c>
       <c r="F9" t="n">
-        <v>12187.5425</v>
+        <v>5231.8471</v>
       </c>
       <c r="G9" t="n">
-        <v>113539.2404999999</v>
+        <v>164763.2863</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>29.74</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -744,36 +746,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.84</v>
+        <v>29.4</v>
       </c>
       <c r="C10" t="n">
-        <v>29.84</v>
+        <v>29.4</v>
       </c>
       <c r="D10" t="n">
-        <v>29.84</v>
+        <v>29.4</v>
       </c>
       <c r="E10" t="n">
-        <v>29.84</v>
+        <v>29.4</v>
       </c>
       <c r="F10" t="n">
-        <v>499.1424</v>
+        <v>25500</v>
       </c>
       <c r="G10" t="n">
-        <v>114038.3828999999</v>
+        <v>139263.2863</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="K10" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -784,22 +786,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.84</v>
+        <v>29.4</v>
       </c>
       <c r="C11" t="n">
-        <v>29.84</v>
+        <v>29.7</v>
       </c>
       <c r="D11" t="n">
-        <v>29.84</v>
+        <v>29.7</v>
       </c>
       <c r="E11" t="n">
-        <v>29.84</v>
+        <v>29.4</v>
       </c>
       <c r="F11" t="n">
-        <v>2054.572</v>
+        <v>46163</v>
       </c>
       <c r="G11" t="n">
-        <v>114038.3828999999</v>
+        <v>185426.2863</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -808,10 +810,12 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -824,22 +828,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.84</v>
+        <v>29.33</v>
       </c>
       <c r="C12" t="n">
-        <v>29.84</v>
+        <v>29.33</v>
       </c>
       <c r="D12" t="n">
-        <v>29.84</v>
+        <v>29.33</v>
       </c>
       <c r="E12" t="n">
-        <v>29.84</v>
+        <v>29.33</v>
       </c>
       <c r="F12" t="n">
-        <v>3597.083</v>
+        <v>1225.4224</v>
       </c>
       <c r="G12" t="n">
-        <v>114038.3828999999</v>
+        <v>184200.8639</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -848,7 +852,9 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -864,22 +870,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29.81</v>
+        <v>29.42</v>
       </c>
       <c r="C13" t="n">
-        <v>29.81</v>
+        <v>29.42</v>
       </c>
       <c r="D13" t="n">
-        <v>29.81</v>
+        <v>29.42</v>
       </c>
       <c r="E13" t="n">
-        <v>29.81</v>
+        <v>29.42</v>
       </c>
       <c r="F13" t="n">
-        <v>3075</v>
+        <v>3889.83</v>
       </c>
       <c r="G13" t="n">
-        <v>110963.3828999999</v>
+        <v>188090.6939</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -888,7 +894,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -904,22 +912,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.72</v>
+        <v>29.42</v>
       </c>
       <c r="C14" t="n">
-        <v>29.72</v>
+        <v>29.6</v>
       </c>
       <c r="D14" t="n">
-        <v>29.72</v>
+        <v>29.6</v>
       </c>
       <c r="E14" t="n">
-        <v>29.72</v>
+        <v>29.41</v>
       </c>
       <c r="F14" t="n">
-        <v>22966.5425</v>
+        <v>99276.4414</v>
       </c>
       <c r="G14" t="n">
-        <v>87996.84039999993</v>
+        <v>287367.1353</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -928,7 +936,9 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -944,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.8</v>
+        <v>29.71</v>
       </c>
       <c r="C15" t="n">
-        <v>29.8</v>
+        <v>29.71</v>
       </c>
       <c r="D15" t="n">
-        <v>29.8</v>
+        <v>29.71</v>
       </c>
       <c r="E15" t="n">
-        <v>29.8</v>
+        <v>29.71</v>
       </c>
       <c r="F15" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G15" t="n">
-        <v>90996.84039999993</v>
+        <v>288367.1353</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -968,7 +978,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -984,22 +996,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8</v>
+        <v>29.71</v>
       </c>
       <c r="C16" t="n">
-        <v>29.81</v>
+        <v>29.71</v>
       </c>
       <c r="D16" t="n">
-        <v>29.81</v>
+        <v>29.71</v>
       </c>
       <c r="E16" t="n">
-        <v>29.8</v>
+        <v>29.71</v>
       </c>
       <c r="F16" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="G16" t="n">
-        <v>94496.84039999993</v>
+        <v>288367.1353</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1008,7 +1020,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1024,22 +1038,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.81</v>
+        <v>29.63</v>
       </c>
       <c r="C17" t="n">
-        <v>29.81</v>
+        <v>29.62</v>
       </c>
       <c r="D17" t="n">
-        <v>29.81</v>
+        <v>29.63</v>
       </c>
       <c r="E17" t="n">
-        <v>29.81</v>
+        <v>29.62</v>
       </c>
       <c r="F17" t="n">
-        <v>500</v>
+        <v>11471.5875</v>
       </c>
       <c r="G17" t="n">
-        <v>94496.84039999993</v>
+        <v>276895.5477999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1048,7 +1062,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1064,22 +1080,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29.8</v>
+        <v>29.46</v>
       </c>
       <c r="C18" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="D18" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="E18" t="n">
-        <v>29.8</v>
+        <v>29.46</v>
       </c>
       <c r="F18" t="n">
-        <v>4339.648</v>
+        <v>205000</v>
       </c>
       <c r="G18" t="n">
-        <v>90157.19239999993</v>
+        <v>71895.54779999994</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1088,7 +1104,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1104,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>29.79</v>
+        <v>29.43</v>
       </c>
       <c r="C19" t="n">
-        <v>29.79</v>
+        <v>29.43</v>
       </c>
       <c r="D19" t="n">
-        <v>29.79</v>
+        <v>29.43</v>
       </c>
       <c r="E19" t="n">
-        <v>29.79</v>
+        <v>29.43</v>
       </c>
       <c r="F19" t="n">
-        <v>2843.4421</v>
+        <v>1159.6717</v>
       </c>
       <c r="G19" t="n">
-        <v>87313.75029999993</v>
+        <v>70735.87609999994</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1128,7 +1146,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1144,22 +1164,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="C20" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="D20" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="E20" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="F20" t="n">
-        <v>120142.5458</v>
+        <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>-32828.79550000008</v>
+        <v>71735.87609999994</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1168,7 +1188,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1184,22 +1206,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="C21" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="D21" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="E21" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="F21" t="n">
-        <v>23.2261</v>
+        <v>340</v>
       </c>
       <c r="G21" t="n">
-        <v>-32828.79550000008</v>
+        <v>71735.87609999994</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1208,7 +1230,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1224,22 +1248,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="C22" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="D22" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="E22" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="F22" t="n">
-        <v>38280.4547</v>
+        <v>1000</v>
       </c>
       <c r="G22" t="n">
-        <v>-32828.79550000008</v>
+        <v>71735.87609999994</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1248,7 +1272,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1264,22 +1290,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.71</v>
+        <v>29.6</v>
       </c>
       <c r="C23" t="n">
-        <v>29.71</v>
+        <v>29.6</v>
       </c>
       <c r="D23" t="n">
-        <v>29.71</v>
+        <v>29.6</v>
       </c>
       <c r="E23" t="n">
-        <v>29.71</v>
+        <v>29.6</v>
       </c>
       <c r="F23" t="n">
-        <v>32140.2687</v>
+        <v>8252.213</v>
       </c>
       <c r="G23" t="n">
-        <v>-32828.79550000008</v>
+        <v>63483.66309999993</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1288,7 +1314,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1304,31 +1332,35 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="C24" t="n">
-        <v>29.7</v>
+        <v>29.66</v>
       </c>
       <c r="D24" t="n">
-        <v>29.71</v>
+        <v>29.66</v>
       </c>
       <c r="E24" t="n">
-        <v>29.7</v>
+        <v>29.66</v>
       </c>
       <c r="F24" t="n">
-        <v>34836.9966</v>
+        <v>8460</v>
       </c>
       <c r="G24" t="n">
-        <v>-67665.79210000008</v>
+        <v>71943.66309999993</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1344,31 +1376,35 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.73</v>
+        <v>29.7</v>
       </c>
       <c r="C25" t="n">
-        <v>29.73</v>
+        <v>29.66</v>
       </c>
       <c r="D25" t="n">
-        <v>29.73</v>
+        <v>29.7</v>
       </c>
       <c r="E25" t="n">
-        <v>29.73</v>
+        <v>29.66</v>
       </c>
       <c r="F25" t="n">
-        <v>34.00605449041372</v>
+        <v>6418.8176</v>
       </c>
       <c r="G25" t="n">
-        <v>-67631.78604550967</v>
+        <v>71943.66309999993</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="K25" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1384,31 +1420,35 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.82</v>
+        <v>29.66</v>
       </c>
       <c r="C26" t="n">
-        <v>29.82</v>
+        <v>29.7</v>
       </c>
       <c r="D26" t="n">
-        <v>29.82</v>
+        <v>29.7</v>
       </c>
       <c r="E26" t="n">
-        <v>29.82</v>
+        <v>29.66</v>
       </c>
       <c r="F26" t="n">
-        <v>34.00402414486921</v>
+        <v>1500</v>
       </c>
       <c r="G26" t="n">
-        <v>-67597.78202136479</v>
+        <v>73443.66309999993</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="K26" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1424,31 +1464,35 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>29.84</v>
+        <v>29.7</v>
       </c>
       <c r="C27" t="n">
-        <v>29.93</v>
+        <v>29.7</v>
       </c>
       <c r="D27" t="n">
-        <v>29.93</v>
+        <v>29.7</v>
       </c>
       <c r="E27" t="n">
-        <v>29.84</v>
+        <v>29.7</v>
       </c>
       <c r="F27" t="n">
-        <v>75274.3496650852</v>
+        <v>4280.36</v>
       </c>
       <c r="G27" t="n">
-        <v>7676.567643720409</v>
+        <v>73443.66309999993</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1464,31 +1508,35 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="C28" t="n">
-        <v>29.93</v>
+        <v>29.7</v>
       </c>
       <c r="D28" t="n">
-        <v>29.93</v>
+        <v>29.7</v>
       </c>
       <c r="E28" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="F28" t="n">
-        <v>38204.3098</v>
+        <v>1499.0243</v>
       </c>
       <c r="G28" t="n">
-        <v>7676.567643720409</v>
+        <v>73443.66309999993</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1504,31 +1552,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>29.86</v>
+        <v>29.7</v>
       </c>
       <c r="C29" t="n">
-        <v>29.84</v>
+        <v>29.7</v>
       </c>
       <c r="D29" t="n">
-        <v>29.86</v>
+        <v>29.7</v>
       </c>
       <c r="E29" t="n">
-        <v>29.84</v>
+        <v>29.7</v>
       </c>
       <c r="F29" t="n">
-        <v>5356.3584</v>
+        <v>5787.5996</v>
       </c>
       <c r="G29" t="n">
-        <v>2320.209243720409</v>
+        <v>73443.66309999993</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1544,31 +1596,35 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.86</v>
+        <v>29.68</v>
       </c>
       <c r="C30" t="n">
-        <v>29.86</v>
+        <v>29.68</v>
       </c>
       <c r="D30" t="n">
-        <v>29.86</v>
+        <v>29.68</v>
       </c>
       <c r="E30" t="n">
-        <v>29.86</v>
+        <v>29.6</v>
       </c>
       <c r="F30" t="n">
-        <v>448.9306</v>
+        <v>1663.9651</v>
       </c>
       <c r="G30" t="n">
-        <v>2769.139843720409</v>
+        <v>71779.69799999993</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1584,31 +1640,35 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29.84</v>
+        <v>29.7</v>
       </c>
       <c r="C31" t="n">
-        <v>29.66</v>
+        <v>29.7</v>
       </c>
       <c r="D31" t="n">
-        <v>29.84</v>
+        <v>29.71</v>
       </c>
       <c r="E31" t="n">
-        <v>29.66</v>
+        <v>29.7</v>
       </c>
       <c r="F31" t="n">
-        <v>75274.3496</v>
+        <v>4500</v>
       </c>
       <c r="G31" t="n">
-        <v>-72505.2097562796</v>
+        <v>76279.69799999993</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="K31" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1624,31 +1684,35 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.63</v>
+        <v>29.7</v>
       </c>
       <c r="C32" t="n">
-        <v>29.63</v>
+        <v>29.7</v>
       </c>
       <c r="D32" t="n">
-        <v>29.63</v>
+        <v>29.7</v>
       </c>
       <c r="E32" t="n">
-        <v>29.63</v>
+        <v>29.7</v>
       </c>
       <c r="F32" t="n">
-        <v>17341.9809</v>
+        <v>35102.495</v>
       </c>
       <c r="G32" t="n">
-        <v>-89847.19065627959</v>
+        <v>76279.69799999993</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K32" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1664,22 +1728,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.83</v>
+        <v>29.7</v>
       </c>
       <c r="C33" t="n">
-        <v>29.83</v>
+        <v>29.71</v>
       </c>
       <c r="D33" t="n">
-        <v>29.83</v>
+        <v>29.71</v>
       </c>
       <c r="E33" t="n">
-        <v>29.83</v>
+        <v>29.7</v>
       </c>
       <c r="F33" t="n">
-        <v>662.2925</v>
+        <v>5329</v>
       </c>
       <c r="G33" t="n">
-        <v>-89184.8981562796</v>
+        <v>81608.69799999993</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1688,7 +1752,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1704,31 +1770,35 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>29.79</v>
+        <v>29.71</v>
       </c>
       <c r="C34" t="n">
-        <v>29.79</v>
+        <v>29.77</v>
       </c>
       <c r="D34" t="n">
-        <v>29.79</v>
+        <v>29.77</v>
       </c>
       <c r="E34" t="n">
-        <v>29.79</v>
+        <v>29.71</v>
       </c>
       <c r="F34" t="n">
-        <v>1197.046</v>
+        <v>9000</v>
       </c>
       <c r="G34" t="n">
-        <v>-90381.9441562796</v>
+        <v>90608.69799999993</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K34" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1744,22 +1814,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29.88</v>
+        <v>29.77</v>
       </c>
       <c r="C35" t="n">
-        <v>29.88</v>
+        <v>29.77</v>
       </c>
       <c r="D35" t="n">
-        <v>29.88</v>
+        <v>29.77</v>
       </c>
       <c r="E35" t="n">
-        <v>29.88</v>
+        <v>29.77</v>
       </c>
       <c r="F35" t="n">
-        <v>5890.5966</v>
+        <v>6370.8251</v>
       </c>
       <c r="G35" t="n">
-        <v>-84491.34755627959</v>
+        <v>90608.69799999993</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1768,7 +1838,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1784,31 +1856,35 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>29.93</v>
+        <v>29.73</v>
       </c>
       <c r="C36" t="n">
-        <v>29.93</v>
+        <v>29.61</v>
       </c>
       <c r="D36" t="n">
-        <v>29.93</v>
+        <v>29.73</v>
       </c>
       <c r="E36" t="n">
-        <v>29.93</v>
+        <v>29.61</v>
       </c>
       <c r="F36" t="n">
-        <v>4490.1177</v>
+        <v>36</v>
       </c>
       <c r="G36" t="n">
-        <v>-80001.22985627959</v>
+        <v>90572.69799999993</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="K36" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1824,22 +1900,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>29.89</v>
+        <v>29.74</v>
       </c>
       <c r="C37" t="n">
-        <v>29.9</v>
+        <v>29.74</v>
       </c>
       <c r="D37" t="n">
-        <v>29.9</v>
+        <v>29.74</v>
       </c>
       <c r="E37" t="n">
-        <v>29.89</v>
+        <v>29.74</v>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>10779</v>
       </c>
       <c r="G37" t="n">
-        <v>-85001.22985627959</v>
+        <v>101351.6979999999</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1848,9 +1924,11 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.93</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>29.61</v>
+      </c>
+      <c r="K37" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1866,22 +1944,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>29.9</v>
+        <v>29.77</v>
       </c>
       <c r="C38" t="n">
-        <v>29.93</v>
+        <v>29.78</v>
       </c>
       <c r="D38" t="n">
-        <v>29.93</v>
+        <v>29.78</v>
       </c>
       <c r="E38" t="n">
-        <v>29.9</v>
+        <v>29.77</v>
       </c>
       <c r="F38" t="n">
-        <v>24733.5597</v>
+        <v>12187.5425</v>
       </c>
       <c r="G38" t="n">
-        <v>-60267.67015627959</v>
+        <v>113539.2404999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1890,7 +1968,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1906,33 +1986,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="C39" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="D39" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="E39" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="F39" t="n">
-        <v>2000</v>
+        <v>499.1424</v>
       </c>
       <c r="G39" t="n">
-        <v>-62267.67015627959</v>
+        <v>114038.3828999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>29.93</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1948,22 +2028,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="C40" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="D40" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="E40" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="F40" t="n">
-        <v>58000</v>
+        <v>2054.572</v>
       </c>
       <c r="G40" t="n">
-        <v>-62267.67015627959</v>
+        <v>114038.3828999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1972,7 +2052,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1988,22 +2070,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="C41" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="D41" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="E41" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="F41" t="n">
-        <v>2216.6217</v>
+        <v>3597.083</v>
       </c>
       <c r="G41" t="n">
-        <v>-62267.67015627959</v>
+        <v>114038.3828999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2012,7 +2094,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2028,22 +2112,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29.9</v>
+        <v>29.81</v>
       </c>
       <c r="C42" t="n">
-        <v>29.9</v>
+        <v>29.81</v>
       </c>
       <c r="D42" t="n">
-        <v>29.9</v>
+        <v>29.81</v>
       </c>
       <c r="E42" t="n">
-        <v>29.9</v>
+        <v>29.81</v>
       </c>
       <c r="F42" t="n">
-        <v>500</v>
+        <v>3075</v>
       </c>
       <c r="G42" t="n">
-        <v>-62267.67015627959</v>
+        <v>110963.3828999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2052,7 +2136,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2068,22 +2154,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29.9</v>
+        <v>29.72</v>
       </c>
       <c r="C43" t="n">
-        <v>29.9</v>
+        <v>29.72</v>
       </c>
       <c r="D43" t="n">
-        <v>29.9</v>
+        <v>29.72</v>
       </c>
       <c r="E43" t="n">
-        <v>29.9</v>
+        <v>29.72</v>
       </c>
       <c r="F43" t="n">
-        <v>1500</v>
+        <v>22966.5425</v>
       </c>
       <c r="G43" t="n">
-        <v>-62267.67015627959</v>
+        <v>87996.84039999993</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2092,7 +2178,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2108,22 +2196,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="C44" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="D44" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="E44" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="F44" t="n">
-        <v>7198.5399</v>
+        <v>3000</v>
       </c>
       <c r="G44" t="n">
-        <v>-69466.2100562796</v>
+        <v>90996.84039999993</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2132,7 +2220,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2148,31 +2238,35 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="C45" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="D45" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="E45" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="F45" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="G45" t="n">
-        <v>-69466.2100562796</v>
+        <v>94496.84039999993</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K45" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2188,22 +2282,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="C46" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="D46" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="E46" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="F46" t="n">
         <v>500</v>
       </c>
       <c r="G46" t="n">
-        <v>-69466.2100562796</v>
+        <v>94496.84039999993</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2212,9 +2306,11 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+        <v>29.81</v>
+      </c>
+      <c r="K46" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2230,33 +2326,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="C47" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="D47" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="E47" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>4339.648</v>
       </c>
       <c r="G47" t="n">
-        <v>-69466.2100562796</v>
+        <v>90157.19239999993</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2272,33 +2368,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.88</v>
+        <v>29.79</v>
       </c>
       <c r="C48" t="n">
-        <v>29.88</v>
+        <v>29.79</v>
       </c>
       <c r="D48" t="n">
-        <v>29.88</v>
+        <v>29.79</v>
       </c>
       <c r="E48" t="n">
-        <v>29.88</v>
+        <v>29.79</v>
       </c>
       <c r="F48" t="n">
-        <v>500</v>
+        <v>2843.4421</v>
       </c>
       <c r="G48" t="n">
-        <v>-69466.2100562796</v>
+        <v>87313.75029999993</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2314,33 +2410,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="C49" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="D49" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="E49" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="F49" t="n">
-        <v>2106.3491</v>
+        <v>120142.5458</v>
       </c>
       <c r="G49" t="n">
-        <v>-69466.2100562796</v>
+        <v>-32828.79550000008</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2356,33 +2452,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="C50" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="D50" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="E50" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>23.2261</v>
       </c>
       <c r="G50" t="n">
-        <v>-69466.2100562796</v>
+        <v>-32828.79550000008</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2398,33 +2494,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="C51" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="D51" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="E51" t="n">
-        <v>29.88</v>
+        <v>29.71</v>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>38280.4547</v>
       </c>
       <c r="G51" t="n">
-        <v>-69466.2100562796</v>
+        <v>-32828.79550000008</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2440,22 +2536,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29.86</v>
+        <v>29.71</v>
       </c>
       <c r="C52" t="n">
-        <v>29.86</v>
+        <v>29.71</v>
       </c>
       <c r="D52" t="n">
-        <v>29.86</v>
+        <v>29.71</v>
       </c>
       <c r="E52" t="n">
-        <v>29.86</v>
+        <v>29.71</v>
       </c>
       <c r="F52" t="n">
-        <v>7623.7536</v>
+        <v>32140.2687</v>
       </c>
       <c r="G52" t="n">
-        <v>-77089.96365627959</v>
+        <v>-32828.79550000008</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2464,7 +2560,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2480,33 +2578,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.86</v>
+        <v>29.71</v>
       </c>
       <c r="C53" t="n">
-        <v>29.86</v>
+        <v>29.7</v>
       </c>
       <c r="D53" t="n">
-        <v>29.86</v>
+        <v>29.71</v>
       </c>
       <c r="E53" t="n">
-        <v>29.86</v>
+        <v>29.7</v>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>34836.9966</v>
       </c>
       <c r="G53" t="n">
-        <v>-77089.96365627959</v>
+        <v>-67665.79210000008</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,22 +2620,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.86</v>
+        <v>29.73</v>
       </c>
       <c r="C54" t="n">
-        <v>29.88</v>
+        <v>29.73</v>
       </c>
       <c r="D54" t="n">
-        <v>29.88</v>
+        <v>29.73</v>
       </c>
       <c r="E54" t="n">
-        <v>29.86</v>
+        <v>29.73</v>
       </c>
       <c r="F54" t="n">
-        <v>16500</v>
+        <v>34.00605449041372</v>
       </c>
       <c r="G54" t="n">
-        <v>-60589.96365627959</v>
+        <v>-67631.78604550967</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2546,7 +2644,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2562,31 +2662,35 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29.88</v>
+        <v>29.82</v>
       </c>
       <c r="C55" t="n">
-        <v>29.88</v>
+        <v>29.82</v>
       </c>
       <c r="D55" t="n">
-        <v>29.88</v>
+        <v>29.82</v>
       </c>
       <c r="E55" t="n">
-        <v>29.88</v>
+        <v>29.82</v>
       </c>
       <c r="F55" t="n">
-        <v>10000</v>
+        <v>34.00402414486921</v>
       </c>
       <c r="G55" t="n">
-        <v>-60589.96365627959</v>
+        <v>-67597.78202136479</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="K55" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2602,31 +2706,35 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.88</v>
+        <v>29.84</v>
       </c>
       <c r="C56" t="n">
-        <v>29.88</v>
+        <v>29.93</v>
       </c>
       <c r="D56" t="n">
-        <v>29.88</v>
+        <v>29.93</v>
       </c>
       <c r="E56" t="n">
-        <v>29.88</v>
+        <v>29.84</v>
       </c>
       <c r="F56" t="n">
-        <v>1378</v>
+        <v>75274.3496650852</v>
       </c>
       <c r="G56" t="n">
-        <v>-60589.96365627959</v>
+        <v>7676.567643720409</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="K56" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2642,22 +2750,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.88</v>
+        <v>29.9</v>
       </c>
       <c r="C57" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="D57" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="E57" t="n">
         <v>29.9</v>
       </c>
-      <c r="D57" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E57" t="n">
-        <v>29.88</v>
-      </c>
       <c r="F57" t="n">
-        <v>9500</v>
+        <v>38204.3098</v>
       </c>
       <c r="G57" t="n">
-        <v>-51089.96365627959</v>
+        <v>7676.567643720409</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2666,7 +2774,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2682,33 +2792,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="C58" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="D58" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="E58" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="F58" t="n">
-        <v>3457.035</v>
+        <v>5356.3584</v>
       </c>
       <c r="G58" t="n">
-        <v>-51089.96365627959</v>
+        <v>2320.209243720409</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2724,33 +2834,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="C59" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="D59" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="E59" t="n">
-        <v>29.9</v>
+        <v>29.86</v>
       </c>
       <c r="F59" t="n">
-        <v>2950.0022</v>
+        <v>448.9306</v>
       </c>
       <c r="G59" t="n">
-        <v>-51089.96365627959</v>
+        <v>2769.139843720409</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2766,33 +2876,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="C60" t="n">
-        <v>29.9</v>
+        <v>29.66</v>
       </c>
       <c r="D60" t="n">
-        <v>29.9</v>
+        <v>29.84</v>
       </c>
       <c r="E60" t="n">
-        <v>29.9</v>
+        <v>29.66</v>
       </c>
       <c r="F60" t="n">
-        <v>3500</v>
+        <v>75274.3496</v>
       </c>
       <c r="G60" t="n">
-        <v>-51089.96365627959</v>
+        <v>-72505.2097562796</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2808,33 +2918,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29.9</v>
+        <v>29.63</v>
       </c>
       <c r="C61" t="n">
-        <v>29.9</v>
+        <v>29.63</v>
       </c>
       <c r="D61" t="n">
-        <v>29.9</v>
+        <v>29.63</v>
       </c>
       <c r="E61" t="n">
-        <v>29.9</v>
+        <v>29.63</v>
       </c>
       <c r="F61" t="n">
-        <v>3463.1789</v>
+        <v>17341.9809</v>
       </c>
       <c r="G61" t="n">
-        <v>-51089.96365627959</v>
+        <v>-89847.19065627959</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2850,33 +2960,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29.9</v>
+        <v>29.83</v>
       </c>
       <c r="C62" t="n">
-        <v>29.9</v>
+        <v>29.83</v>
       </c>
       <c r="D62" t="n">
-        <v>29.9</v>
+        <v>29.83</v>
       </c>
       <c r="E62" t="n">
-        <v>29.9</v>
+        <v>29.83</v>
       </c>
       <c r="F62" t="n">
-        <v>1293.8606</v>
+        <v>662.2925</v>
       </c>
       <c r="G62" t="n">
-        <v>-51089.96365627959</v>
+        <v>-89184.8981562796</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2892,22 +3002,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29.9</v>
+        <v>29.79</v>
       </c>
       <c r="C63" t="n">
-        <v>29.9</v>
+        <v>29.79</v>
       </c>
       <c r="D63" t="n">
-        <v>29.9</v>
+        <v>29.79</v>
       </c>
       <c r="E63" t="n">
-        <v>29.9</v>
+        <v>29.79</v>
       </c>
       <c r="F63" t="n">
-        <v>6398.075</v>
+        <v>1197.046</v>
       </c>
       <c r="G63" t="n">
-        <v>-51089.96365627959</v>
+        <v>-90381.9441562796</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2916,7 +3026,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2932,33 +3044,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29.9</v>
+        <v>29.88</v>
       </c>
       <c r="C64" t="n">
-        <v>29.96</v>
+        <v>29.88</v>
       </c>
       <c r="D64" t="n">
-        <v>29.96</v>
+        <v>29.88</v>
       </c>
       <c r="E64" t="n">
-        <v>29.9</v>
+        <v>29.88</v>
       </c>
       <c r="F64" t="n">
-        <v>11638</v>
+        <v>5890.5966</v>
       </c>
       <c r="G64" t="n">
-        <v>-39451.96365627959</v>
+        <v>-84491.34755627959</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2974,22 +3086,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29.96</v>
+        <v>29.93</v>
       </c>
       <c r="C65" t="n">
-        <v>30.14</v>
+        <v>29.93</v>
       </c>
       <c r="D65" t="n">
-        <v>30.14</v>
+        <v>29.93</v>
       </c>
       <c r="E65" t="n">
-        <v>29.96</v>
+        <v>29.93</v>
       </c>
       <c r="F65" t="n">
-        <v>13233.0736</v>
+        <v>4490.1177</v>
       </c>
       <c r="G65" t="n">
-        <v>-26218.89005627959</v>
+        <v>-80001.22985627959</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2998,7 +3110,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3014,22 +3128,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>30.14</v>
+        <v>29.89</v>
       </c>
       <c r="C66" t="n">
-        <v>30.24</v>
+        <v>29.9</v>
       </c>
       <c r="D66" t="n">
-        <v>30.24</v>
+        <v>29.9</v>
       </c>
       <c r="E66" t="n">
-        <v>30.14</v>
+        <v>29.89</v>
       </c>
       <c r="F66" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G66" t="n">
-        <v>-16218.89005627959</v>
+        <v>-85001.22985627959</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3038,7 +3152,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3054,22 +3170,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30.25</v>
+        <v>29.9</v>
       </c>
       <c r="C67" t="n">
-        <v>30.25</v>
+        <v>29.93</v>
       </c>
       <c r="D67" t="n">
-        <v>30.25</v>
+        <v>29.93</v>
       </c>
       <c r="E67" t="n">
-        <v>30.25</v>
+        <v>29.9</v>
       </c>
       <c r="F67" t="n">
-        <v>1000</v>
+        <v>24733.5597</v>
       </c>
       <c r="G67" t="n">
-        <v>-15218.89005627959</v>
+        <v>-60267.67015627959</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3078,7 +3194,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3094,22 +3212,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>30.25</v>
+        <v>29.9</v>
       </c>
       <c r="C68" t="n">
-        <v>30.6</v>
+        <v>29.9</v>
       </c>
       <c r="D68" t="n">
-        <v>30.6</v>
+        <v>29.9</v>
       </c>
       <c r="E68" t="n">
-        <v>30.25</v>
+        <v>29.9</v>
       </c>
       <c r="F68" t="n">
-        <v>23320.1512</v>
+        <v>2000</v>
       </c>
       <c r="G68" t="n">
-        <v>8101.261143720407</v>
+        <v>-62267.67015627959</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3118,7 +3236,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,22 +3254,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30.6</v>
+        <v>29.9</v>
       </c>
       <c r="C69" t="n">
-        <v>30.83</v>
+        <v>29.9</v>
       </c>
       <c r="D69" t="n">
-        <v>30.83</v>
+        <v>29.9</v>
       </c>
       <c r="E69" t="n">
-        <v>30.52</v>
+        <v>29.9</v>
       </c>
       <c r="F69" t="n">
-        <v>44339.5496</v>
+        <v>58000</v>
       </c>
       <c r="G69" t="n">
-        <v>52440.8107437204</v>
+        <v>-62267.67015627959</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3158,7 +3278,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3174,22 +3296,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30.7</v>
+        <v>29.9</v>
       </c>
       <c r="C70" t="n">
-        <v>31</v>
+        <v>29.9</v>
       </c>
       <c r="D70" t="n">
-        <v>31</v>
+        <v>29.9</v>
       </c>
       <c r="E70" t="n">
-        <v>30.7</v>
+        <v>29.9</v>
       </c>
       <c r="F70" t="n">
-        <v>21793.1797</v>
+        <v>2216.6217</v>
       </c>
       <c r="G70" t="n">
-        <v>74233.99044372039</v>
+        <v>-62267.67015627959</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3198,7 +3320,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3214,72 +3338,80 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>31</v>
+        <v>29.9</v>
       </c>
       <c r="C71" t="n">
-        <v>30.8</v>
+        <v>29.9</v>
       </c>
       <c r="D71" t="n">
-        <v>31.26</v>
+        <v>29.9</v>
       </c>
       <c r="E71" t="n">
-        <v>30.8</v>
+        <v>29.9</v>
       </c>
       <c r="F71" t="n">
-        <v>158252.3549</v>
+        <v>500</v>
       </c>
       <c r="G71" t="n">
-        <v>-84018.36445627961</v>
+        <v>-62267.67015627959</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>29.51</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
-        <v>1.002356902356902</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>31</v>
+        <v>29.9</v>
       </c>
       <c r="C72" t="n">
-        <v>30.9</v>
+        <v>29.9</v>
       </c>
       <c r="D72" t="n">
-        <v>31.09</v>
+        <v>29.9</v>
       </c>
       <c r="E72" t="n">
-        <v>30.81</v>
+        <v>29.9</v>
       </c>
       <c r="F72" t="n">
-        <v>58422.2186</v>
+        <v>1500</v>
       </c>
       <c r="G72" t="n">
-        <v>-25596.14585627961</v>
+        <v>-62267.67015627959</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3290,32 +3422,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>30.81</v>
+        <v>29.88</v>
       </c>
       <c r="C73" t="n">
-        <v>30.9</v>
+        <v>29.88</v>
       </c>
       <c r="D73" t="n">
-        <v>30.9</v>
+        <v>29.88</v>
       </c>
       <c r="E73" t="n">
-        <v>30.81</v>
+        <v>29.88</v>
       </c>
       <c r="F73" t="n">
-        <v>697.7186</v>
+        <v>7198.5399</v>
       </c>
       <c r="G73" t="n">
-        <v>-25596.14585627961</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K73" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3326,32 +3466,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="C74" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="D74" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="E74" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="F74" t="n">
-        <v>7810.0997</v>
+        <v>6500</v>
       </c>
       <c r="G74" t="n">
-        <v>-33406.24555627961</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3362,22 +3508,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>31.02</v>
+        <v>29.88</v>
       </c>
       <c r="C75" t="n">
-        <v>31.02</v>
+        <v>29.88</v>
       </c>
       <c r="D75" t="n">
-        <v>31.02</v>
+        <v>29.88</v>
       </c>
       <c r="E75" t="n">
-        <v>31.02</v>
+        <v>29.88</v>
       </c>
       <c r="F75" t="n">
-        <v>277.891</v>
+        <v>500</v>
       </c>
       <c r="G75" t="n">
-        <v>-33128.35455627961</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3386,8 +3532,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3398,32 +3550,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="C76" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="D76" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="E76" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="F76" t="n">
-        <v>627.6933</v>
+        <v>2000</v>
       </c>
       <c r="G76" t="n">
-        <v>-33756.04785627961</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3434,22 +3592,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>31.01</v>
+        <v>29.88</v>
       </c>
       <c r="C77" t="n">
-        <v>31.01</v>
+        <v>29.88</v>
       </c>
       <c r="D77" t="n">
-        <v>31.01</v>
+        <v>29.88</v>
       </c>
       <c r="E77" t="n">
-        <v>31.01</v>
+        <v>29.88</v>
       </c>
       <c r="F77" t="n">
-        <v>128736.2512</v>
+        <v>500</v>
       </c>
       <c r="G77" t="n">
-        <v>94980.20334372039</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3458,8 +3616,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3470,32 +3634,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30.91</v>
+        <v>29.88</v>
       </c>
       <c r="C78" t="n">
-        <v>30.61</v>
+        <v>29.88</v>
       </c>
       <c r="D78" t="n">
-        <v>30.91</v>
+        <v>29.88</v>
       </c>
       <c r="E78" t="n">
-        <v>30.61</v>
+        <v>29.88</v>
       </c>
       <c r="F78" t="n">
-        <v>8835.963400000001</v>
+        <v>2106.3491</v>
       </c>
       <c r="G78" t="n">
-        <v>86144.2399437204</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3506,32 +3676,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30.89</v>
+        <v>29.88</v>
       </c>
       <c r="C79" t="n">
-        <v>30.81</v>
+        <v>29.88</v>
       </c>
       <c r="D79" t="n">
-        <v>30.89</v>
+        <v>29.88</v>
       </c>
       <c r="E79" t="n">
-        <v>30.81</v>
+        <v>29.88</v>
       </c>
       <c r="F79" t="n">
-        <v>94021.4184</v>
+        <v>1500</v>
       </c>
       <c r="G79" t="n">
-        <v>180165.6583437204</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3542,32 +3718,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="C80" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="D80" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="E80" t="n">
-        <v>30.8</v>
+        <v>29.88</v>
       </c>
       <c r="F80" t="n">
-        <v>22027.8094</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="n">
-        <v>158137.8489437204</v>
+        <v>-69466.2100562796</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3578,32 +3760,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>30.8</v>
+        <v>29.86</v>
       </c>
       <c r="C81" t="n">
-        <v>30.8</v>
+        <v>29.86</v>
       </c>
       <c r="D81" t="n">
-        <v>30.8</v>
+        <v>29.86</v>
       </c>
       <c r="E81" t="n">
-        <v>30.8</v>
+        <v>29.86</v>
       </c>
       <c r="F81" t="n">
-        <v>9385.608700000001</v>
+        <v>7623.7536</v>
       </c>
       <c r="G81" t="n">
-        <v>158137.8489437204</v>
+        <v>-77089.96365627959</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3614,32 +3802,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>30.61</v>
+        <v>29.86</v>
       </c>
       <c r="C82" t="n">
-        <v>30.5</v>
+        <v>29.86</v>
       </c>
       <c r="D82" t="n">
-        <v>30.61</v>
+        <v>29.86</v>
       </c>
       <c r="E82" t="n">
-        <v>30.5</v>
+        <v>29.86</v>
       </c>
       <c r="F82" t="n">
-        <v>17660.5756</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>140477.2733437204</v>
+        <v>-77089.96365627959</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3650,22 +3844,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>30.69</v>
+        <v>29.86</v>
       </c>
       <c r="C83" t="n">
-        <v>30.79</v>
+        <v>29.88</v>
       </c>
       <c r="D83" t="n">
-        <v>30.79</v>
+        <v>29.88</v>
       </c>
       <c r="E83" t="n">
-        <v>30.69</v>
+        <v>29.86</v>
       </c>
       <c r="F83" t="n">
-        <v>1806.969795388113</v>
+        <v>16500</v>
       </c>
       <c r="G83" t="n">
-        <v>142284.2431391085</v>
+        <v>-60589.96365627959</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3674,8 +3868,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3686,32 +3886,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>30.7</v>
+        <v>29.88</v>
       </c>
       <c r="C84" t="n">
-        <v>30.7</v>
+        <v>29.88</v>
       </c>
       <c r="D84" t="n">
-        <v>30.7</v>
+        <v>29.88</v>
       </c>
       <c r="E84" t="n">
-        <v>30.7</v>
+        <v>29.88</v>
       </c>
       <c r="F84" t="n">
-        <v>26.224</v>
+        <v>10000</v>
       </c>
       <c r="G84" t="n">
-        <v>142258.0191391085</v>
+        <v>-60589.96365627959</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3722,32 +3928,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>30.49</v>
+        <v>29.88</v>
       </c>
       <c r="C85" t="n">
-        <v>30.55</v>
+        <v>29.88</v>
       </c>
       <c r="D85" t="n">
-        <v>30.55</v>
+        <v>29.88</v>
       </c>
       <c r="E85" t="n">
-        <v>30.08</v>
+        <v>29.88</v>
       </c>
       <c r="F85" t="n">
-        <v>14111.8204</v>
+        <v>1378</v>
       </c>
       <c r="G85" t="n">
-        <v>128146.1987391085</v>
+        <v>-60589.96365627959</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3758,32 +3970,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>30.59</v>
+        <v>29.88</v>
       </c>
       <c r="C86" t="n">
-        <v>30.55</v>
+        <v>29.9</v>
       </c>
       <c r="D86" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="E86" t="n">
-        <v>30.55</v>
+        <v>29.88</v>
       </c>
       <c r="F86" t="n">
-        <v>31611.0608</v>
+        <v>9500</v>
       </c>
       <c r="G86" t="n">
-        <v>128146.1987391085</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="K86" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3794,32 +4014,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>30.55</v>
+        <v>29.9</v>
       </c>
       <c r="C87" t="n">
-        <v>30.58</v>
+        <v>29.9</v>
       </c>
       <c r="D87" t="n">
-        <v>30.58</v>
+        <v>29.9</v>
       </c>
       <c r="E87" t="n">
-        <v>30.55</v>
+        <v>29.9</v>
       </c>
       <c r="F87" t="n">
-        <v>69393.63181262263</v>
+        <v>3457.035</v>
       </c>
       <c r="G87" t="n">
-        <v>197539.8305517311</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K87" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3830,32 +4058,40 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>30.55</v>
+        <v>29.9</v>
       </c>
       <c r="C88" t="n">
-        <v>30.69</v>
+        <v>29.9</v>
       </c>
       <c r="D88" t="n">
-        <v>30.69</v>
+        <v>29.9</v>
       </c>
       <c r="E88" t="n">
-        <v>30.51</v>
+        <v>29.9</v>
       </c>
       <c r="F88" t="n">
-        <v>99539.6358</v>
+        <v>2950.0022</v>
       </c>
       <c r="G88" t="n">
-        <v>297079.4663517312</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K88" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3866,32 +4102,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="C89" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="D89" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="E89" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="F89" t="n">
-        <v>20108.4588</v>
+        <v>3500</v>
       </c>
       <c r="G89" t="n">
-        <v>276971.0075517311</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K89" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3902,32 +4146,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="C90" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="D90" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="E90" t="n">
-        <v>30.59</v>
+        <v>29.9</v>
       </c>
       <c r="F90" t="n">
-        <v>836.52</v>
+        <v>3463.1789</v>
       </c>
       <c r="G90" t="n">
-        <v>277807.5275517312</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K90" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3938,32 +4190,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30.58</v>
+        <v>29.9</v>
       </c>
       <c r="C91" t="n">
-        <v>30.58</v>
+        <v>29.9</v>
       </c>
       <c r="D91" t="n">
-        <v>30.58</v>
+        <v>29.9</v>
       </c>
       <c r="E91" t="n">
-        <v>30.58</v>
+        <v>29.9</v>
       </c>
       <c r="F91" t="n">
-        <v>12005.6878</v>
+        <v>1293.8606</v>
       </c>
       <c r="G91" t="n">
-        <v>265801.8397517311</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K91" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3974,32 +4234,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="C92" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="D92" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="E92" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F92" t="n">
-        <v>5367.1822</v>
+        <v>6398.075</v>
       </c>
       <c r="G92" t="n">
-        <v>260434.6575517311</v>
+        <v>-51089.96365627959</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K92" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4010,32 +4278,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30.29</v>
+        <v>29.9</v>
       </c>
       <c r="C93" t="n">
-        <v>30.29</v>
+        <v>29.96</v>
       </c>
       <c r="D93" t="n">
-        <v>30.29</v>
+        <v>29.96</v>
       </c>
       <c r="E93" t="n">
-        <v>30.29</v>
+        <v>29.9</v>
       </c>
       <c r="F93" t="n">
-        <v>17</v>
+        <v>11638</v>
       </c>
       <c r="G93" t="n">
-        <v>260451.6575517311</v>
+        <v>-39451.96365627959</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K93" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4046,32 +4322,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>30.12</v>
+        <v>29.96</v>
       </c>
       <c r="C94" t="n">
-        <v>30.1</v>
+        <v>30.14</v>
       </c>
       <c r="D94" t="n">
-        <v>30.12</v>
+        <v>30.14</v>
       </c>
       <c r="E94" t="n">
-        <v>30.1</v>
+        <v>29.96</v>
       </c>
       <c r="F94" t="n">
-        <v>15000</v>
+        <v>13233.0736</v>
       </c>
       <c r="G94" t="n">
-        <v>245451.6575517311</v>
+        <v>-26218.89005627959</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="K94" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4082,22 +4366,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>30.15</v>
+        <v>30.14</v>
       </c>
       <c r="C95" t="n">
-        <v>30.11</v>
+        <v>30.24</v>
       </c>
       <c r="D95" t="n">
-        <v>30.15</v>
+        <v>30.24</v>
       </c>
       <c r="E95" t="n">
-        <v>30.11</v>
+        <v>30.14</v>
       </c>
       <c r="F95" t="n">
-        <v>18973</v>
+        <v>10000</v>
       </c>
       <c r="G95" t="n">
-        <v>264424.6575517311</v>
+        <v>-16218.89005627959</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4106,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4118,32 +4408,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>30.13</v>
+        <v>30.25</v>
       </c>
       <c r="C96" t="n">
-        <v>30.13</v>
+        <v>30.25</v>
       </c>
       <c r="D96" t="n">
-        <v>30.13</v>
+        <v>30.25</v>
       </c>
       <c r="E96" t="n">
-        <v>30.13</v>
+        <v>30.25</v>
       </c>
       <c r="F96" t="n">
-        <v>26742.6211</v>
+        <v>1000</v>
       </c>
       <c r="G96" t="n">
-        <v>291167.2786517311</v>
+        <v>-15218.89005627959</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4157,29 +4453,35 @@
         <v>30.25</v>
       </c>
       <c r="C97" t="n">
-        <v>30.25</v>
+        <v>30.6</v>
       </c>
       <c r="D97" t="n">
-        <v>30.25</v>
+        <v>30.6</v>
       </c>
       <c r="E97" t="n">
         <v>30.25</v>
       </c>
       <c r="F97" t="n">
-        <v>4772.9072</v>
+        <v>23320.1512</v>
       </c>
       <c r="G97" t="n">
-        <v>295940.1858517311</v>
+        <v>8101.261143720407</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4190,32 +4492,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30.35</v>
+        <v>30.6</v>
       </c>
       <c r="C98" t="n">
-        <v>30.35</v>
+        <v>30.83</v>
       </c>
       <c r="D98" t="n">
-        <v>30.35</v>
+        <v>30.83</v>
       </c>
       <c r="E98" t="n">
-        <v>30.35</v>
+        <v>30.52</v>
       </c>
       <c r="F98" t="n">
-        <v>34.00329489291598</v>
+        <v>44339.5496</v>
       </c>
       <c r="G98" t="n">
-        <v>295974.189146624</v>
+        <v>52440.8107437204</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4226,36 +4534,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>30.36</v>
+        <v>30.7</v>
       </c>
       <c r="C99" t="n">
-        <v>30.36</v>
+        <v>31</v>
       </c>
       <c r="D99" t="n">
-        <v>30.36</v>
+        <v>31</v>
       </c>
       <c r="E99" t="n">
-        <v>30.36</v>
+        <v>30.7</v>
       </c>
       <c r="F99" t="n">
-        <v>3742.3795</v>
+        <v>21793.1797</v>
       </c>
       <c r="G99" t="n">
-        <v>299716.568646624</v>
+        <v>74233.99044372039</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>30.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
+        <v>29.51</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4266,38 +4576,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>30.36</v>
+        <v>31</v>
       </c>
       <c r="C100" t="n">
-        <v>30.59</v>
+        <v>30.8</v>
       </c>
       <c r="D100" t="n">
-        <v>30.6</v>
+        <v>31.26</v>
       </c>
       <c r="E100" t="n">
-        <v>30.36</v>
+        <v>30.8</v>
       </c>
       <c r="F100" t="n">
-        <v>18330.9717</v>
+        <v>158252.3549</v>
       </c>
       <c r="G100" t="n">
-        <v>318047.540346624</v>
+        <v>-84018.36445627961</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>30.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>30.35</v>
+        <v>29.51</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4310,22 +4618,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>30.41</v>
+        <v>31</v>
       </c>
       <c r="C101" t="n">
-        <v>30.41</v>
+        <v>30.9</v>
       </c>
       <c r="D101" t="n">
-        <v>30.41</v>
+        <v>31.09</v>
       </c>
       <c r="E101" t="n">
-        <v>30.4</v>
+        <v>30.81</v>
       </c>
       <c r="F101" t="n">
-        <v>33268</v>
+        <v>58422.2186</v>
       </c>
       <c r="G101" t="n">
-        <v>284779.540346624</v>
+        <v>-25596.14585627961</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4335,15 +4643,15 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>30.35</v>
+        <v>29.51</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>1.042102677058624</v>
       </c>
       <c r="N101" t="inlineStr"/>
     </row>
@@ -4352,28 +4660,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>30.35</v>
+        <v>30.81</v>
       </c>
       <c r="C102" t="n">
-        <v>30.35</v>
+        <v>30.9</v>
       </c>
       <c r="D102" t="n">
-        <v>30.35</v>
+        <v>30.9</v>
       </c>
       <c r="E102" t="n">
-        <v>30.35</v>
+        <v>30.81</v>
       </c>
       <c r="F102" t="n">
-        <v>9999.9992</v>
+        <v>697.7186</v>
       </c>
       <c r="G102" t="n">
-        <v>274779.541146624</v>
+        <v>-25596.14585627961</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4388,22 +4696,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>30.35</v>
+        <v>30.8</v>
       </c>
       <c r="C103" t="n">
-        <v>30.57</v>
+        <v>30.8</v>
       </c>
       <c r="D103" t="n">
-        <v>30.57</v>
+        <v>30.8</v>
       </c>
       <c r="E103" t="n">
-        <v>30.35</v>
+        <v>30.8</v>
       </c>
       <c r="F103" t="n">
-        <v>23112.0242</v>
+        <v>7810.0997</v>
       </c>
       <c r="G103" t="n">
-        <v>297891.5653466239</v>
+        <v>-33406.24555627961</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4424,28 +4732,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>30.57</v>
+        <v>31.02</v>
       </c>
       <c r="C104" t="n">
-        <v>30.57</v>
+        <v>31.02</v>
       </c>
       <c r="D104" t="n">
-        <v>30.57</v>
+        <v>31.02</v>
       </c>
       <c r="E104" t="n">
-        <v>30.57</v>
+        <v>31.02</v>
       </c>
       <c r="F104" t="n">
-        <v>1429.3765</v>
+        <v>277.891</v>
       </c>
       <c r="G104" t="n">
-        <v>297891.5653466239</v>
+        <v>-33128.35455627961</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4460,22 +4768,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>30.42</v>
+        <v>30.8</v>
       </c>
       <c r="C105" t="n">
-        <v>30.42</v>
+        <v>30.8</v>
       </c>
       <c r="D105" t="n">
-        <v>30.42</v>
+        <v>30.8</v>
       </c>
       <c r="E105" t="n">
-        <v>30.42</v>
+        <v>30.8</v>
       </c>
       <c r="F105" t="n">
-        <v>591.6591</v>
+        <v>627.6933</v>
       </c>
       <c r="G105" t="n">
-        <v>297299.906246624</v>
+        <v>-33756.04785627961</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4496,28 +4804,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>30.42</v>
+        <v>31.01</v>
       </c>
       <c r="C106" t="n">
-        <v>30.42</v>
+        <v>31.01</v>
       </c>
       <c r="D106" t="n">
-        <v>30.42</v>
+        <v>31.01</v>
       </c>
       <c r="E106" t="n">
-        <v>30.42</v>
+        <v>31.01</v>
       </c>
       <c r="F106" t="n">
-        <v>2303.5529</v>
+        <v>128736.2512</v>
       </c>
       <c r="G106" t="n">
-        <v>297299.906246624</v>
+        <v>94980.20334372039</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4532,22 +4840,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>30.35</v>
+        <v>30.91</v>
       </c>
       <c r="C107" t="n">
-        <v>30.23</v>
+        <v>30.61</v>
       </c>
       <c r="D107" t="n">
-        <v>30.35</v>
+        <v>30.91</v>
       </c>
       <c r="E107" t="n">
-        <v>30.23</v>
+        <v>30.61</v>
       </c>
       <c r="F107" t="n">
-        <v>1144.1976</v>
+        <v>8835.963400000001</v>
       </c>
       <c r="G107" t="n">
-        <v>296155.7086466239</v>
+        <v>86144.2399437204</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4568,22 +4876,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>30.22</v>
+        <v>30.89</v>
       </c>
       <c r="C108" t="n">
-        <v>30.22</v>
+        <v>30.81</v>
       </c>
       <c r="D108" t="n">
-        <v>30.22</v>
+        <v>30.89</v>
       </c>
       <c r="E108" t="n">
-        <v>30.22</v>
+        <v>30.81</v>
       </c>
       <c r="F108" t="n">
-        <v>10000</v>
+        <v>94021.4184</v>
       </c>
       <c r="G108" t="n">
-        <v>286155.7086466239</v>
+        <v>180165.6583437204</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4604,22 +4912,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>30.12</v>
+        <v>30.8</v>
       </c>
       <c r="C109" t="n">
-        <v>30.12</v>
+        <v>30.8</v>
       </c>
       <c r="D109" t="n">
-        <v>30.12</v>
+        <v>30.8</v>
       </c>
       <c r="E109" t="n">
-        <v>30.12</v>
+        <v>30.8</v>
       </c>
       <c r="F109" t="n">
-        <v>37749.5397</v>
+        <v>22027.8094</v>
       </c>
       <c r="G109" t="n">
-        <v>248406.1689466239</v>
+        <v>158137.8489437204</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4640,22 +4948,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>30.38</v>
+        <v>30.8</v>
       </c>
       <c r="C110" t="n">
-        <v>30.38</v>
+        <v>30.8</v>
       </c>
       <c r="D110" t="n">
-        <v>30.38</v>
+        <v>30.8</v>
       </c>
       <c r="E110" t="n">
-        <v>30.38</v>
+        <v>30.8</v>
       </c>
       <c r="F110" t="n">
-        <v>34.00263331138907</v>
+        <v>9385.608700000001</v>
       </c>
       <c r="G110" t="n">
-        <v>248440.1715799353</v>
+        <v>158137.8489437204</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4676,22 +4984,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>30.39</v>
+        <v>30.61</v>
       </c>
       <c r="C111" t="n">
-        <v>30.39</v>
+        <v>30.5</v>
       </c>
       <c r="D111" t="n">
-        <v>30.39</v>
+        <v>30.61</v>
       </c>
       <c r="E111" t="n">
-        <v>30.39</v>
+        <v>30.5</v>
       </c>
       <c r="F111" t="n">
-        <v>33.99144455412965</v>
+        <v>17660.5756</v>
       </c>
       <c r="G111" t="n">
-        <v>248474.1630244894</v>
+        <v>140477.2733437204</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4712,22 +5020,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>30.46</v>
+        <v>30.69</v>
       </c>
       <c r="C112" t="n">
-        <v>30.46</v>
+        <v>30.79</v>
       </c>
       <c r="D112" t="n">
-        <v>30.46</v>
+        <v>30.79</v>
       </c>
       <c r="E112" t="n">
-        <v>30.46</v>
+        <v>30.69</v>
       </c>
       <c r="F112" t="n">
-        <v>34.0118187787262</v>
+        <v>1806.969795388113</v>
       </c>
       <c r="G112" t="n">
-        <v>248508.1748432682</v>
+        <v>142284.2431391085</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4748,22 +5056,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="C113" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="D113" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="E113" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="F113" t="n">
-        <v>1879.996732124183</v>
+        <v>26.224</v>
       </c>
       <c r="G113" t="n">
-        <v>250388.1715753924</v>
+        <v>142258.0191391085</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4784,28 +5092,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>30.59</v>
+        <v>30.49</v>
       </c>
       <c r="C114" t="n">
-        <v>30.59</v>
+        <v>30.55</v>
       </c>
       <c r="D114" t="n">
-        <v>30.59</v>
+        <v>30.55</v>
       </c>
       <c r="E114" t="n">
-        <v>30.59</v>
+        <v>30.08</v>
       </c>
       <c r="F114" t="n">
-        <v>13586.0831</v>
+        <v>14111.8204</v>
       </c>
       <c r="G114" t="n">
-        <v>236802.0884753924</v>
+        <v>128146.1987391085</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4820,28 +5128,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>30.68</v>
+        <v>30.59</v>
       </c>
       <c r="C115" t="n">
-        <v>30.68</v>
+        <v>30.55</v>
       </c>
       <c r="D115" t="n">
-        <v>30.68</v>
+        <v>30.59</v>
       </c>
       <c r="E115" t="n">
-        <v>30.68</v>
+        <v>30.55</v>
       </c>
       <c r="F115" t="n">
-        <v>33.99608865710561</v>
+        <v>31611.0608</v>
       </c>
       <c r="G115" t="n">
-        <v>236836.0845640495</v>
+        <v>128146.1987391085</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4856,28 +5164,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>30.7</v>
+        <v>30.55</v>
       </c>
       <c r="C116" t="n">
-        <v>30.7</v>
+        <v>30.58</v>
       </c>
       <c r="D116" t="n">
-        <v>30.7</v>
+        <v>30.58</v>
       </c>
       <c r="E116" t="n">
-        <v>30.7</v>
+        <v>30.55</v>
       </c>
       <c r="F116" t="n">
-        <v>31177.8867</v>
+        <v>69393.63181262263</v>
       </c>
       <c r="G116" t="n">
-        <v>268013.9712640495</v>
+        <v>197539.8305517311</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4892,28 +5200,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="C117" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="D117" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="E117" t="n">
         <v>30.51</v>
       </c>
-      <c r="C117" t="n">
-        <v>30.33</v>
-      </c>
-      <c r="D117" t="n">
-        <v>30.51</v>
-      </c>
-      <c r="E117" t="n">
-        <v>30.33</v>
-      </c>
       <c r="F117" t="n">
-        <v>212358.0843</v>
+        <v>99539.6358</v>
       </c>
       <c r="G117" t="n">
-        <v>55655.88696404948</v>
+        <v>297079.4663517312</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4928,28 +5236,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="C118" t="n">
         <v>30.5</v>
       </c>
-      <c r="C118" t="n">
-        <v>30.6</v>
-      </c>
       <c r="D118" t="n">
-        <v>30.6</v>
+        <v>30.59</v>
       </c>
       <c r="E118" t="n">
         <v>30.5</v>
       </c>
       <c r="F118" t="n">
-        <v>3539.358428104575</v>
+        <v>20108.4588</v>
       </c>
       <c r="G118" t="n">
-        <v>59195.24539215406</v>
+        <v>276971.0075517311</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4964,22 +5272,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>30.66</v>
+        <v>30.59</v>
       </c>
       <c r="C119" t="n">
-        <v>30.66</v>
+        <v>30.59</v>
       </c>
       <c r="D119" t="n">
-        <v>30.66</v>
+        <v>30.59</v>
       </c>
       <c r="E119" t="n">
-        <v>30.66</v>
+        <v>30.59</v>
       </c>
       <c r="F119" t="n">
-        <v>1996</v>
+        <v>836.52</v>
       </c>
       <c r="G119" t="n">
-        <v>61191.24539215406</v>
+        <v>277807.5275517312</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5000,22 +5308,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>30.38</v>
+        <v>30.58</v>
       </c>
       <c r="C120" t="n">
-        <v>30.38</v>
+        <v>30.58</v>
       </c>
       <c r="D120" t="n">
-        <v>30.38</v>
+        <v>30.58</v>
       </c>
       <c r="E120" t="n">
-        <v>30.38</v>
+        <v>30.58</v>
       </c>
       <c r="F120" t="n">
-        <v>4100</v>
+        <v>12005.6878</v>
       </c>
       <c r="G120" t="n">
-        <v>57091.24539215406</v>
+        <v>265801.8397517311</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5036,22 +5344,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="C121" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="D121" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="E121" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="F121" t="n">
-        <v>28297.1463</v>
+        <v>5367.1822</v>
       </c>
       <c r="G121" t="n">
-        <v>85388.39169215405</v>
+        <v>260434.6575517311</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5072,22 +5380,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>30.4</v>
+        <v>30.29</v>
       </c>
       <c r="C122" t="n">
-        <v>30.4</v>
+        <v>30.29</v>
       </c>
       <c r="D122" t="n">
-        <v>30.4</v>
+        <v>30.29</v>
       </c>
       <c r="E122" t="n">
-        <v>30.4</v>
+        <v>30.29</v>
       </c>
       <c r="F122" t="n">
-        <v>2901</v>
+        <v>17</v>
       </c>
       <c r="G122" t="n">
-        <v>85388.39169215405</v>
+        <v>260451.6575517311</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5108,22 +5416,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>30.4</v>
+        <v>30.12</v>
       </c>
       <c r="C123" t="n">
-        <v>30.18</v>
+        <v>30.1</v>
       </c>
       <c r="D123" t="n">
-        <v>30.4</v>
+        <v>30.12</v>
       </c>
       <c r="E123" t="n">
-        <v>30.18</v>
+        <v>30.1</v>
       </c>
       <c r="F123" t="n">
-        <v>164253.6234</v>
+        <v>15000</v>
       </c>
       <c r="G123" t="n">
-        <v>-78865.23170784596</v>
+        <v>245451.6575517311</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5144,22 +5452,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>30.6</v>
+        <v>30.15</v>
       </c>
       <c r="C124" t="n">
-        <v>30.6</v>
+        <v>30.11</v>
       </c>
       <c r="D124" t="n">
-        <v>30.6</v>
+        <v>30.15</v>
       </c>
       <c r="E124" t="n">
-        <v>30.6</v>
+        <v>30.11</v>
       </c>
       <c r="F124" t="n">
-        <v>7620.9995</v>
+        <v>18973</v>
       </c>
       <c r="G124" t="n">
-        <v>-71244.23220784595</v>
+        <v>264424.6575517311</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5180,22 +5488,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>30.34</v>
+        <v>30.13</v>
       </c>
       <c r="C125" t="n">
-        <v>30.34</v>
+        <v>30.13</v>
       </c>
       <c r="D125" t="n">
-        <v>30.34</v>
+        <v>30.13</v>
       </c>
       <c r="E125" t="n">
-        <v>30.34</v>
+        <v>30.13</v>
       </c>
       <c r="F125" t="n">
-        <v>18371.9301</v>
+        <v>26742.6211</v>
       </c>
       <c r="G125" t="n">
-        <v>-89616.16230784595</v>
+        <v>291167.2786517311</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5216,22 +5524,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>30.3</v>
+        <v>30.25</v>
       </c>
       <c r="C126" t="n">
-        <v>30.5</v>
+        <v>30.25</v>
       </c>
       <c r="D126" t="n">
-        <v>30.5</v>
+        <v>30.25</v>
       </c>
       <c r="E126" t="n">
-        <v>30.3</v>
+        <v>30.25</v>
       </c>
       <c r="F126" t="n">
-        <v>33540.0645</v>
+        <v>4772.9072</v>
       </c>
       <c r="G126" t="n">
-        <v>-56076.09780784595</v>
+        <v>295940.1858517311</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5252,22 +5560,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>30.18</v>
+        <v>30.35</v>
       </c>
       <c r="C127" t="n">
-        <v>30.18</v>
+        <v>30.35</v>
       </c>
       <c r="D127" t="n">
-        <v>30.18</v>
+        <v>30.35</v>
       </c>
       <c r="E127" t="n">
-        <v>30.18</v>
+        <v>30.35</v>
       </c>
       <c r="F127" t="n">
-        <v>12495.7474</v>
+        <v>34.00329489291598</v>
       </c>
       <c r="G127" t="n">
-        <v>-68571.84520784595</v>
+        <v>295974.189146624</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5288,22 +5596,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>30.2</v>
+        <v>30.36</v>
       </c>
       <c r="C128" t="n">
-        <v>30.2</v>
+        <v>30.36</v>
       </c>
       <c r="D128" t="n">
-        <v>30.2</v>
+        <v>30.36</v>
       </c>
       <c r="E128" t="n">
-        <v>30.2</v>
+        <v>30.36</v>
       </c>
       <c r="F128" t="n">
-        <v>34.00662251655629</v>
+        <v>3742.3795</v>
       </c>
       <c r="G128" t="n">
-        <v>-68537.8385853294</v>
+        <v>299716.568646624</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5324,28 +5632,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>30.13</v>
+        <v>30.36</v>
       </c>
       <c r="C129" t="n">
-        <v>30.13</v>
+        <v>30.59</v>
       </c>
       <c r="D129" t="n">
-        <v>30.13</v>
+        <v>30.6</v>
       </c>
       <c r="E129" t="n">
-        <v>30.13</v>
+        <v>30.36</v>
       </c>
       <c r="F129" t="n">
-        <v>1380.9048</v>
+        <v>18330.9717</v>
       </c>
       <c r="G129" t="n">
-        <v>-69918.74338532941</v>
+        <v>318047.540346624</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5360,28 +5668,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>30.19</v>
+        <v>30.41</v>
       </c>
       <c r="C130" t="n">
-        <v>30.18</v>
+        <v>30.41</v>
       </c>
       <c r="D130" t="n">
-        <v>30.19</v>
+        <v>30.41</v>
       </c>
       <c r="E130" t="n">
-        <v>30.12</v>
+        <v>30.4</v>
       </c>
       <c r="F130" t="n">
-        <v>80601.22488702348</v>
+        <v>33268</v>
       </c>
       <c r="G130" t="n">
-        <v>10682.48150169407</v>
+        <v>284779.540346624</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5396,28 +5704,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>30.19</v>
+        <v>30.35</v>
       </c>
       <c r="C131" t="n">
-        <v>30.12</v>
+        <v>30.35</v>
       </c>
       <c r="D131" t="n">
-        <v>30.19</v>
+        <v>30.35</v>
       </c>
       <c r="E131" t="n">
-        <v>30.12</v>
+        <v>30.35</v>
       </c>
       <c r="F131" t="n">
-        <v>11538.23736316661</v>
+        <v>9999.9992</v>
       </c>
       <c r="G131" t="n">
-        <v>-855.7558614725403</v>
+        <v>274779.541146624</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5432,28 +5740,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>30.19</v>
+        <v>30.35</v>
       </c>
       <c r="C132" t="n">
-        <v>30.19</v>
+        <v>30.57</v>
       </c>
       <c r="D132" t="n">
-        <v>30.19</v>
+        <v>30.57</v>
       </c>
       <c r="E132" t="n">
-        <v>30.19</v>
+        <v>30.35</v>
       </c>
       <c r="F132" t="n">
-        <v>33.98476316661146</v>
+        <v>23112.0242</v>
       </c>
       <c r="G132" t="n">
-        <v>-821.7710983059289</v>
+        <v>297891.5653466239</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5468,28 +5776,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>30.2</v>
+        <v>30.57</v>
       </c>
       <c r="C133" t="n">
-        <v>30.2</v>
+        <v>30.57</v>
       </c>
       <c r="D133" t="n">
-        <v>30.2</v>
+        <v>30.57</v>
       </c>
       <c r="E133" t="n">
-        <v>30.2</v>
+        <v>30.57</v>
       </c>
       <c r="F133" t="n">
-        <v>34.00662251655629</v>
+        <v>1429.3765</v>
       </c>
       <c r="G133" t="n">
-        <v>-787.7644757893727</v>
+        <v>297891.5653466239</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5504,28 +5812,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="C134" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="D134" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="E134" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="F134" t="n">
-        <v>1473.5982</v>
+        <v>591.6591</v>
       </c>
       <c r="G134" t="n">
-        <v>-2261.362675789373</v>
+        <v>297299.906246624</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5540,28 +5848,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="C135" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="D135" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="E135" t="n">
-        <v>30.13</v>
+        <v>30.42</v>
       </c>
       <c r="F135" t="n">
-        <v>1432.2564</v>
+        <v>2303.5529</v>
       </c>
       <c r="G135" t="n">
-        <v>-2261.362675789373</v>
+        <v>297299.906246624</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5576,28 +5884,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>30.18</v>
+        <v>30.35</v>
       </c>
       <c r="C136" t="n">
-        <v>30.18</v>
+        <v>30.23</v>
       </c>
       <c r="D136" t="n">
-        <v>30.18</v>
+        <v>30.35</v>
       </c>
       <c r="E136" t="n">
-        <v>30.18</v>
+        <v>30.23</v>
       </c>
       <c r="F136" t="n">
-        <v>2256.3295</v>
+        <v>1144.1976</v>
       </c>
       <c r="G136" t="n">
-        <v>-5.033175789372763</v>
+        <v>296155.7086466239</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5612,22 +5920,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>30.19</v>
+        <v>30.22</v>
       </c>
       <c r="C137" t="n">
-        <v>30.19</v>
+        <v>30.22</v>
       </c>
       <c r="D137" t="n">
-        <v>30.19</v>
+        <v>30.22</v>
       </c>
       <c r="E137" t="n">
-        <v>30.19</v>
+        <v>30.22</v>
       </c>
       <c r="F137" t="n">
-        <v>558.13</v>
+        <v>10000</v>
       </c>
       <c r="G137" t="n">
-        <v>553.0968242106272</v>
+        <v>286155.7086466239</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5643,6 +5951,1050 @@
       </c>
       <c r="N137" t="inlineStr"/>
     </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="C138" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="D138" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="E138" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="F138" t="n">
+        <v>37749.5397</v>
+      </c>
+      <c r="G138" t="n">
+        <v>248406.1689466239</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="C139" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="D139" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="E139" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="F139" t="n">
+        <v>34.00263331138907</v>
+      </c>
+      <c r="G139" t="n">
+        <v>248440.1715799353</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="C140" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="D140" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="E140" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="F140" t="n">
+        <v>33.99144455412965</v>
+      </c>
+      <c r="G140" t="n">
+        <v>248474.1630244894</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="C141" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="D141" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="E141" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="F141" t="n">
+        <v>34.0118187787262</v>
+      </c>
+      <c r="G141" t="n">
+        <v>248508.1748432682</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1879.996732124183</v>
+      </c>
+      <c r="G142" t="n">
+        <v>250388.1715753924</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="C143" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="D143" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="E143" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="F143" t="n">
+        <v>13586.0831</v>
+      </c>
+      <c r="G143" t="n">
+        <v>236802.0884753924</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="C144" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="D144" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="E144" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="F144" t="n">
+        <v>33.99608865710561</v>
+      </c>
+      <c r="G144" t="n">
+        <v>236836.0845640495</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>31177.8867</v>
+      </c>
+      <c r="G145" t="n">
+        <v>268013.9712640495</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="C146" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="D146" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="E146" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="F146" t="n">
+        <v>212358.0843</v>
+      </c>
+      <c r="G146" t="n">
+        <v>55655.88696404948</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3539.358428104575</v>
+      </c>
+      <c r="G147" t="n">
+        <v>59195.24539215406</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="C148" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="D148" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="E148" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1996</v>
+      </c>
+      <c r="G148" t="n">
+        <v>61191.24539215406</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="C149" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="D149" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="E149" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4100</v>
+      </c>
+      <c r="G149" t="n">
+        <v>57091.24539215406</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>28297.1463</v>
+      </c>
+      <c r="G150" t="n">
+        <v>85388.39169215405</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C151" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2901</v>
+      </c>
+      <c r="G151" t="n">
+        <v>85388.39169215405</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="D152" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="F152" t="n">
+        <v>164253.6234</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-78865.23170784596</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C153" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7620.9995</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-71244.23220784595</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="C154" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="D154" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="E154" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="F154" t="n">
+        <v>18371.9301</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-89616.16230784595</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E155" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>33540.0645</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-56076.09780784595</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="C156" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="D156" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="E156" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="F156" t="n">
+        <v>12495.7474</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-68571.84520784595</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>34.00662251655629</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-68537.8385853294</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="C158" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="D158" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="E158" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1380.9048</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-69918.74338532941</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="C159" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="D159" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="E159" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="F159" t="n">
+        <v>80601.22488702348</v>
+      </c>
+      <c r="G159" t="n">
+        <v>10682.48150169407</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="C160" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="D160" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="E160" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="F160" t="n">
+        <v>11538.23736316661</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-855.7558614725403</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="C161" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="D161" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="E161" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="F161" t="n">
+        <v>33.98476316661146</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-821.7710983059289</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>34.00662251655629</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-787.7644757893727</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="C163" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="D163" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="E163" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1473.5982</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2261.362675789373</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="C164" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="D164" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="E164" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1432.2564</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2261.362675789373</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="C165" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="D165" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="E165" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2256.3295</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-5.033175789372763</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="C166" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="D166" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="E166" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="F166" t="n">
+        <v>558.13</v>
+      </c>
+      <c r="G166" t="n">
+        <v>553.0968242106272</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-13 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-13 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>133611.0508</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>160111.0508</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="J3" t="n">
         <v>29.3</v>
       </c>
-      <c r="K3" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>171987.1334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>29.7</v>
       </c>
       <c r="J4" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K4" t="n">
         <v>29.3</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,21 @@
         <v>171987.1334</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>29.71</v>
-      </c>
-      <c r="K5" t="n">
         <v>29.3</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,16 +603,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,16 +636,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,16 +669,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -730,16 +702,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,22 +733,15 @@
         <v>139263.2863</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="K10" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -806,22 +768,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -848,22 +801,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -890,22 +834,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -932,22 +867,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -974,22 +900,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1016,22 +933,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1058,22 +966,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1100,22 +999,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1142,22 +1032,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1184,22 +1065,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1226,22 +1098,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1268,22 +1131,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1310,22 +1164,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1350,26 +1195,15 @@
         <v>71943.66309999993</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1394,26 +1228,15 @@
         <v>71943.66309999993</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="K25" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1438,26 +1261,15 @@
         <v>73443.66309999993</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="K26" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1482,26 +1294,15 @@
         <v>73443.66309999993</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1526,26 +1327,15 @@
         <v>73443.66309999993</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1570,26 +1360,15 @@
         <v>73443.66309999993</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1614,26 +1393,15 @@
         <v>71779.69799999993</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K30" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1658,26 +1426,15 @@
         <v>76279.69799999993</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>29.68</v>
-      </c>
-      <c r="K31" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1702,26 +1459,15 @@
         <v>76279.69799999993</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1748,22 +1494,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1788,26 +1525,15 @@
         <v>90608.69799999993</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>29.71</v>
-      </c>
-      <c r="K34" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1834,22 +1560,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1874,26 +1591,15 @@
         <v>90572.69799999993</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>29.77</v>
-      </c>
-      <c r="K36" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1918,26 +1624,15 @@
         <v>101351.6979999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>29.61</v>
-      </c>
-      <c r="K37" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1964,22 +1659,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2006,22 +1692,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2048,22 +1725,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2090,22 +1758,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2132,22 +1791,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2174,22 +1824,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2216,22 +1857,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2256,26 +1888,15 @@
         <v>94496.84039999993</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K45" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2300,26 +1921,15 @@
         <v>94496.84039999993</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>29.81</v>
-      </c>
-      <c r="K46" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2346,22 +1956,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2388,22 +1989,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2430,22 +2022,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2472,22 +2055,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2514,22 +2088,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2556,22 +2121,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2598,22 +2154,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2640,22 +2187,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2680,26 +2218,15 @@
         <v>-67597.78202136479</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>29.73</v>
-      </c>
-      <c r="K55" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2724,26 +2251,15 @@
         <v>7676.567643720409</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>29.82</v>
-      </c>
-      <c r="K56" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2770,22 +2286,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2812,22 +2319,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2854,22 +2352,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2896,22 +2385,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2938,22 +2418,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2980,22 +2451,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3022,22 +2484,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3064,22 +2517,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3106,22 +2550,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3148,22 +2583,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3190,22 +2616,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3232,22 +2649,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3274,22 +2682,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3316,22 +2715,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3358,22 +2748,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3400,22 +2781,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3440,26 +2812,15 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K73" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3486,22 +2847,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3528,22 +2880,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3570,22 +2913,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3612,22 +2946,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3654,22 +2979,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3696,22 +3012,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3738,22 +3045,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3780,22 +3078,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3822,22 +3111,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3864,22 +3144,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3906,22 +3177,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3948,22 +3210,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3988,26 +3241,15 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K86" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4032,26 +3274,15 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K87" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4076,26 +3307,15 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K88" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4120,26 +3340,15 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K89" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4164,26 +3373,15 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K90" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4208,26 +3406,15 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K91" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4252,26 +3439,15 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K92" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4296,26 +3472,15 @@
         <v>-39451.96365627959</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K93" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4340,26 +3505,15 @@
         <v>-26218.89005627959</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>29.96</v>
-      </c>
-      <c r="K94" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4386,22 +3540,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4428,22 +3573,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4470,22 +3606,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4512,22 +3639,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4554,22 +3672,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4596,22 +3705,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4638,22 +3738,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1.042102677058624</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4678,18 +3769,15 @@
         <v>-25596.14585627961</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4714,18 +3802,15 @@
         <v>-33406.24555627961</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4752,16 +3837,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4788,16 +3870,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4824,16 +3903,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4860,16 +3936,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4894,18 +3967,15 @@
         <v>180165.6583437204</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4930,18 +4000,15 @@
         <v>158137.8489437204</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4966,18 +4033,15 @@
         <v>158137.8489437204</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5002,18 +4066,15 @@
         <v>140477.2733437204</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5040,16 +4101,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5076,16 +4134,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5112,16 +4167,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5148,16 +4200,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5184,16 +4233,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5220,16 +4266,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5256,16 +4299,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5292,16 +4332,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5326,18 +4363,15 @@
         <v>265801.8397517311</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5362,18 +4396,15 @@
         <v>260434.6575517311</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5400,16 +4431,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5436,16 +4464,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5472,16 +4497,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5508,16 +4530,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5544,16 +4563,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5580,16 +4596,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5616,16 +4629,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5650,18 +4660,15 @@
         <v>318047.540346624</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5686,18 +4693,15 @@
         <v>284779.540346624</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5722,18 +4726,15 @@
         <v>274779.541146624</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5760,16 +4761,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5796,16 +4794,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5832,16 +4827,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5868,16 +4860,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5902,18 +4891,15 @@
         <v>296155.7086466239</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5940,16 +4926,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5976,16 +4959,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6012,16 +4992,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6048,16 +5025,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6084,16 +5058,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6120,16 +5091,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6156,16 +5124,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6192,16 +5157,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6228,16 +5190,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6264,16 +5223,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6300,16 +5256,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6336,16 +5289,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6372,16 +5322,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6408,16 +5355,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6444,16 +5388,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6480,16 +5421,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6516,16 +5454,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6552,16 +5487,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6588,16 +5520,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6624,16 +5553,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6660,16 +5586,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6696,16 +5619,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6732,16 +5652,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6768,16 +5685,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6804,16 +5718,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6840,16 +5751,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6876,16 +5784,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6912,16 +5817,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6948,16 +5850,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6984,18 +5883,15 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-13 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>133611.0508</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>160111.0508</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>29.3</v>
@@ -521,7 +521,7 @@
         <v>171987.1334</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>29.7</v>
@@ -562,9 +562,11 @@
         <v>171987.1334</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29.71</v>
+      </c>
       <c r="J5" t="n">
         <v>29.3</v>
       </c>
@@ -601,10 +603,14 @@
         <v>169995.1334</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29.71</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -634,11 +640,19 @@
         <v>169995.1334</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="J7" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -667,11 +681,19 @@
         <v>169995.1334</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -700,11 +722,19 @@
         <v>164763.2863</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="J9" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -733,11 +763,19 @@
         <v>139263.2863</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="J10" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -766,11 +804,19 @@
         <v>185426.2863</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -799,11 +845,19 @@
         <v>184200.8639</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -835,8 +889,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -868,8 +928,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -901,8 +967,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -934,8 +1006,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -967,8 +1045,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1000,8 +1084,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1033,8 +1123,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1066,8 +1162,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1099,8 +1201,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1132,8 +1240,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1165,8 +1279,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1198,8 +1318,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1228,11 +1354,19 @@
         <v>71943.66309999993</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="J25" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1261,11 +1395,19 @@
         <v>73443.66309999993</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="J26" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1294,11 +1436,19 @@
         <v>73443.66309999993</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1327,11 +1477,19 @@
         <v>73443.66309999993</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1360,11 +1518,19 @@
         <v>73443.66309999993</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1393,11 +1559,19 @@
         <v>71779.69799999993</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1429,8 +1603,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1462,8 +1642,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1495,8 +1681,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1525,11 +1717,19 @@
         <v>90608.69799999993</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="J34" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1561,8 +1761,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1594,8 +1800,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1627,8 +1839,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1660,8 +1878,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1693,8 +1917,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1726,8 +1956,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1759,8 +1995,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1792,8 +2034,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1825,8 +2073,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +2109,19 @@
         <v>90996.84039999993</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="J44" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1888,11 +2150,19 @@
         <v>94496.84039999993</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1921,11 +2191,19 @@
         <v>94496.84039999993</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="J46" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1954,11 +2232,19 @@
         <v>90157.19239999993</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="J47" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1990,8 +2276,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2023,8 +2315,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2056,8 +2354,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2089,8 +2393,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2122,8 +2432,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2155,8 +2471,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2188,8 +2510,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2221,8 +2549,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2254,8 +2588,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2287,8 +2627,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2320,8 +2666,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2353,8 +2705,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2386,8 +2744,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2419,8 +2783,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2822,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2485,8 +2861,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2518,8 +2900,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2551,8 +2939,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2584,8 +2978,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2617,8 +3017,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2650,8 +3056,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2683,8 +3095,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2716,8 +3134,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2749,8 +3173,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2782,8 +3212,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2812,11 +3248,19 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2845,11 +3289,19 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J74" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2881,8 +3333,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2914,8 +3372,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2944,11 +3408,19 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J77" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +3449,19 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J78" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +3490,19 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J79" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +3531,19 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J80" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3079,8 +3575,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3112,8 +3614,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3142,11 +3650,19 @@
         <v>-60589.96365627959</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="J83" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3178,8 +3694,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3208,11 +3730,19 @@
         <v>-60589.96365627959</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J85" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3241,11 +3771,19 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J86" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3277,8 +3815,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3310,8 +3854,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3343,8 +3893,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3376,8 +3932,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3409,8 +3971,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3442,8 +4010,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3475,8 +4049,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3508,8 +4088,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3541,8 +4127,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3574,8 +4166,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3607,8 +4205,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3640,8 +4244,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3673,8 +4283,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3706,8 +4322,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3739,8 +4361,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3769,11 +4397,17 @@
         <v>-25596.14585627961</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3802,11 +4436,17 @@
         <v>-33406.24555627961</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3838,8 +4478,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3871,8 +4517,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3904,8 +4556,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3937,8 +4595,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3967,11 +4631,17 @@
         <v>180165.6583437204</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4000,11 +4670,17 @@
         <v>158137.8489437204</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4033,11 +4709,17 @@
         <v>158137.8489437204</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4066,11 +4748,17 @@
         <v>140477.2733437204</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4102,8 +4790,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4135,8 +4829,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4168,8 +4868,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4201,8 +4907,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4234,8 +4946,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4267,8 +4985,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4300,8 +5024,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4333,8 +5063,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4363,11 +5099,17 @@
         <v>265801.8397517311</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4396,11 +5138,17 @@
         <v>260434.6575517311</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4432,8 +5180,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4465,8 +5219,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4498,8 +5258,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4531,8 +5297,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4564,8 +5336,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4597,8 +5375,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4630,8 +5414,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4660,11 +5450,17 @@
         <v>318047.540346624</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4693,11 +5489,17 @@
         <v>284779.540346624</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4726,11 +5528,17 @@
         <v>274779.541146624</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +5570,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4795,8 +5609,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4825,13 +5645,19 @@
         <v>297299.906246624</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L134" t="n">
-        <v>1</v>
+        <v>1.018897677549647</v>
       </c>
       <c r="M134" t="inlineStr"/>
     </row>
@@ -4858,7 +5684,7 @@
         <v>297299.906246624</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4891,7 +5717,7 @@
         <v>296155.7086466239</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4924,7 +5750,7 @@
         <v>286155.7086466239</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4957,7 +5783,7 @@
         <v>248406.1689466239</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4990,7 +5816,7 @@
         <v>248440.1715799353</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5023,7 +5849,7 @@
         <v>248474.1630244894</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5056,7 +5882,7 @@
         <v>248508.1748432682</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5089,7 +5915,7 @@
         <v>250388.1715753924</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5122,7 +5948,7 @@
         <v>236802.0884753924</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5155,7 +5981,7 @@
         <v>236836.0845640495</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5188,7 +6014,7 @@
         <v>268013.9712640495</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5221,7 +6047,7 @@
         <v>55655.88696404948</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5254,7 +6080,7 @@
         <v>59195.24539215406</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5287,7 +6113,7 @@
         <v>61191.24539215406</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5320,7 +6146,7 @@
         <v>57091.24539215406</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5353,7 +6179,7 @@
         <v>85388.39169215405</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5386,7 +6212,7 @@
         <v>85388.39169215405</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5419,7 +6245,7 @@
         <v>-78865.23170784596</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5452,7 +6278,7 @@
         <v>-71244.23220784595</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5518,7 +6344,7 @@
         <v>-56076.09780784595</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5551,7 +6377,7 @@
         <v>-68571.84520784595</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5584,7 +6410,7 @@
         <v>-68537.8385853294</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5881,7 +6707,7 @@
         <v>553.0968242106272</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5892,6 +6718,6 @@
       <c r="M166" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-13 BackTest LAMB.xlsx
@@ -521,9 +521,11 @@
         <v>171987.1334</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J4" t="n">
         <v>29.3</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>114038.3828999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1754,7 +1756,7 @@
         <v>114038.3828999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1787,7 +1789,7 @@
         <v>110963.3828999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1820,7 +1822,7 @@
         <v>87996.84039999993</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1853,7 +1855,7 @@
         <v>90996.84039999993</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1886,7 +1888,7 @@
         <v>94496.84039999993</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1919,7 +1921,7 @@
         <v>94496.84039999993</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2909,10 +2911,14 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J76" t="n">
+        <v>29.88</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
@@ -2942,11 +2948,19 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J77" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2978,8 +2992,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3008,10 +3028,14 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J79" t="n">
+        <v>29.88</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3041,11 +3065,19 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J80" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3074,11 +3106,19 @@
         <v>-77089.96365627959</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J81" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3107,10 +3147,14 @@
         <v>-77089.96365627959</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="J82" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
@@ -3145,7 +3189,9 @@
       <c r="I83" t="n">
         <v>29.86</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -3179,10 +3225,14 @@
         <v>-60589.96365627959</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="J84" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3221,7 +3271,9 @@
       <c r="I85" t="n">
         <v>29.88</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3260,7 +3312,9 @@
       <c r="I86" t="n">
         <v>29.88</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3299,7 +3353,9 @@
       <c r="I87" t="n">
         <v>29.9</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3338,7 +3394,9 @@
       <c r="I88" t="n">
         <v>29.9</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3377,7 +3435,9 @@
       <c r="I89" t="n">
         <v>29.9</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3416,7 +3476,9 @@
       <c r="I90" t="n">
         <v>29.9</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3455,7 +3517,9 @@
       <c r="I91" t="n">
         <v>29.9</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3494,7 +3558,9 @@
       <c r="I92" t="n">
         <v>29.9</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3533,7 +3599,9 @@
       <c r="I93" t="n">
         <v>29.9</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3572,7 +3640,9 @@
       <c r="I94" t="n">
         <v>29.96</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3611,7 +3681,9 @@
       <c r="I95" t="n">
         <v>30.14</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>29.86</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3645,147 +3717,179 @@
         <v>-15218.89005627959</v>
       </c>
       <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="J96" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="C97" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="F97" t="n">
+        <v>23320.1512</v>
+      </c>
+      <c r="G97" t="n">
+        <v>8101.261143720407</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="J97" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C98" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="D98" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="E98" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="F98" t="n">
+        <v>44339.5496</v>
+      </c>
+      <c r="G98" t="n">
+        <v>52440.8107437204</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C99" t="n">
+        <v>31</v>
+      </c>
+      <c r="D99" t="n">
+        <v>31</v>
+      </c>
+      <c r="E99" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F99" t="n">
+        <v>21793.1797</v>
+      </c>
+      <c r="G99" t="n">
+        <v>74233.99044372039</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>31</v>
+      </c>
+      <c r="C100" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="E100" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>158252.3549</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-84018.36445627961</v>
+      </c>
+      <c r="H100" t="n">
         <v>2</v>
       </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>30.25</v>
-      </c>
-      <c r="C97" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D97" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E97" t="n">
-        <v>30.25</v>
-      </c>
-      <c r="F97" t="n">
-        <v>23320.1512</v>
-      </c>
-      <c r="G97" t="n">
-        <v>8101.261143720407</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C98" t="n">
-        <v>30.83</v>
-      </c>
-      <c r="D98" t="n">
-        <v>30.83</v>
-      </c>
-      <c r="E98" t="n">
-        <v>30.52</v>
-      </c>
-      <c r="F98" t="n">
-        <v>44339.5496</v>
-      </c>
-      <c r="G98" t="n">
-        <v>52440.8107437204</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C99" t="n">
-        <v>31</v>
-      </c>
-      <c r="D99" t="n">
-        <v>31</v>
-      </c>
-      <c r="E99" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F99" t="n">
-        <v>21793.1797</v>
-      </c>
-      <c r="G99" t="n">
-        <v>74233.99044372039</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>31</v>
-      </c>
-      <c r="C100" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D100" t="n">
-        <v>31.26</v>
-      </c>
-      <c r="E100" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F100" t="n">
-        <v>158252.3549</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-84018.36445627961</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>1.026480241125251</v>
       </c>
       <c r="M100" t="inlineStr"/>
     </row>
@@ -3812,7 +3916,7 @@
         <v>-25596.14585627961</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3845,7 +3949,7 @@
         <v>-25596.14585627961</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3878,7 +3982,7 @@
         <v>-33406.24555627961</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4010,7 +4114,7 @@
         <v>86144.2399437204</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4043,7 +4147,7 @@
         <v>180165.6583437204</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4076,7 +4180,7 @@
         <v>158137.8489437204</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4109,7 +4213,7 @@
         <v>158137.8489437204</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4142,7 +4246,7 @@
         <v>140477.2733437204</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4175,7 +4279,7 @@
         <v>142284.2431391085</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4208,7 +4312,7 @@
         <v>142258.0191391085</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4241,7 +4345,7 @@
         <v>128146.1987391085</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4373,7 +4477,7 @@
         <v>276971.0075517311</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4406,7 +4510,7 @@
         <v>277807.5275517312</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4439,7 +4543,7 @@
         <v>265801.8397517311</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4472,7 +4576,7 @@
         <v>260434.6575517311</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4505,7 +4609,7 @@
         <v>260451.6575517311</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4703,7 +4807,7 @@
         <v>299716.568646624</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4736,7 +4840,7 @@
         <v>318047.540346624</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4769,7 +4873,7 @@
         <v>284779.540346624</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4802,7 +4906,7 @@
         <v>274779.541146624</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4868,7 +4972,7 @@
         <v>297891.5653466239</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4901,7 +5005,7 @@
         <v>297299.906246624</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4934,7 +5038,7 @@
         <v>297299.906246624</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4967,7 +5071,7 @@
         <v>296155.7086466239</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5165,7 +5269,7 @@
         <v>250388.1715753924</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>

--- a/BackTest/2020-01-13 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-13 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>16412.2014</v>
       </c>
       <c r="G2" t="n">
-        <v>133611.0508</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>26500</v>
       </c>
       <c r="G3" t="n">
-        <v>160111.0508</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>29.3</v>
       </c>
       <c r="I3" t="n">
         <v>29.3</v>
       </c>
-      <c r="J3" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,21 @@
         <v>11876.0826</v>
       </c>
       <c r="G4" t="n">
-        <v>171987.1334</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J4" t="n">
         <v>29.3</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +543,21 @@
         <v>35</v>
       </c>
       <c r="G5" t="n">
-        <v>171987.1334</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
         <v>29.3</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,18 +579,15 @@
         <v>1992</v>
       </c>
       <c r="G6" t="n">
-        <v>169995.1334</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,18 +609,15 @@
         <v>1536.9186</v>
       </c>
       <c r="G7" t="n">
-        <v>169995.1334</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,18 +639,15 @@
         <v>1364.0843</v>
       </c>
       <c r="G8" t="n">
-        <v>169995.1334</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -697,18 +669,15 @@
         <v>5231.8471</v>
       </c>
       <c r="G9" t="n">
-        <v>164763.2863</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -730,18 +699,15 @@
         <v>25500</v>
       </c>
       <c r="G10" t="n">
-        <v>139263.2863</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,18 +729,15 @@
         <v>46163</v>
       </c>
       <c r="G11" t="n">
-        <v>185426.2863</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -796,18 +759,15 @@
         <v>1225.4224</v>
       </c>
       <c r="G12" t="n">
-        <v>184200.8639</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -829,18 +789,15 @@
         <v>3889.83</v>
       </c>
       <c r="G13" t="n">
-        <v>188090.6939</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -862,18 +819,15 @@
         <v>99276.4414</v>
       </c>
       <c r="G14" t="n">
-        <v>287367.1353</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -895,18 +849,15 @@
         <v>1000</v>
       </c>
       <c r="G15" t="n">
-        <v>288367.1353</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -928,18 +879,15 @@
         <v>2500</v>
       </c>
       <c r="G16" t="n">
-        <v>288367.1353</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -961,18 +909,15 @@
         <v>11471.5875</v>
       </c>
       <c r="G17" t="n">
-        <v>276895.5477999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -994,18 +939,15 @@
         <v>205000</v>
       </c>
       <c r="G18" t="n">
-        <v>71895.54779999994</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1027,18 +969,15 @@
         <v>1159.6717</v>
       </c>
       <c r="G19" t="n">
-        <v>70735.87609999994</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1060,18 +999,15 @@
         <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>71735.87609999994</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1093,18 +1029,15 @@
         <v>340</v>
       </c>
       <c r="G21" t="n">
-        <v>71735.87609999994</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1126,18 +1059,15 @@
         <v>1000</v>
       </c>
       <c r="G22" t="n">
-        <v>71735.87609999994</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1159,18 +1089,15 @@
         <v>8252.213</v>
       </c>
       <c r="G23" t="n">
-        <v>63483.66309999993</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1192,18 +1119,15 @@
         <v>8460</v>
       </c>
       <c r="G24" t="n">
-        <v>71943.66309999993</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1225,18 +1149,15 @@
         <v>6418.8176</v>
       </c>
       <c r="G25" t="n">
-        <v>71943.66309999993</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1258,18 +1179,15 @@
         <v>1500</v>
       </c>
       <c r="G26" t="n">
-        <v>73443.66309999993</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1291,18 +1209,15 @@
         <v>4280.36</v>
       </c>
       <c r="G27" t="n">
-        <v>73443.66309999993</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1324,18 +1239,15 @@
         <v>1499.0243</v>
       </c>
       <c r="G28" t="n">
-        <v>73443.66309999993</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1357,18 +1269,15 @@
         <v>5787.5996</v>
       </c>
       <c r="G29" t="n">
-        <v>73443.66309999993</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1390,18 +1299,15 @@
         <v>1663.9651</v>
       </c>
       <c r="G30" t="n">
-        <v>71779.69799999993</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1423,18 +1329,15 @@
         <v>4500</v>
       </c>
       <c r="G31" t="n">
-        <v>76279.69799999993</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1456,18 +1359,15 @@
         <v>35102.495</v>
       </c>
       <c r="G32" t="n">
-        <v>76279.69799999993</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1489,18 +1389,15 @@
         <v>5329</v>
       </c>
       <c r="G33" t="n">
-        <v>81608.69799999993</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1522,18 +1419,15 @@
         <v>9000</v>
       </c>
       <c r="G34" t="n">
-        <v>90608.69799999993</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1555,18 +1449,15 @@
         <v>6370.8251</v>
       </c>
       <c r="G35" t="n">
-        <v>90608.69799999993</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1588,18 +1479,15 @@
         <v>36</v>
       </c>
       <c r="G36" t="n">
-        <v>90572.69799999993</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1621,18 +1509,15 @@
         <v>10779</v>
       </c>
       <c r="G37" t="n">
-        <v>101351.6979999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1654,18 +1539,15 @@
         <v>12187.5425</v>
       </c>
       <c r="G38" t="n">
-        <v>113539.2404999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1687,18 +1569,15 @@
         <v>499.1424</v>
       </c>
       <c r="G39" t="n">
-        <v>114038.3828999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1720,18 +1599,15 @@
         <v>2054.572</v>
       </c>
       <c r="G40" t="n">
-        <v>114038.3828999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1753,18 +1629,15 @@
         <v>3597.083</v>
       </c>
       <c r="G41" t="n">
-        <v>114038.3828999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1786,18 +1659,15 @@
         <v>3075</v>
       </c>
       <c r="G42" t="n">
-        <v>110963.3828999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1819,18 +1689,15 @@
         <v>22966.5425</v>
       </c>
       <c r="G43" t="n">
-        <v>87996.84039999993</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1852,18 +1719,15 @@
         <v>3000</v>
       </c>
       <c r="G44" t="n">
-        <v>90996.84039999993</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1885,18 +1749,15 @@
         <v>3500</v>
       </c>
       <c r="G45" t="n">
-        <v>94496.84039999993</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1918,18 +1779,15 @@
         <v>500</v>
       </c>
       <c r="G46" t="n">
-        <v>94496.84039999993</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1951,18 +1809,15 @@
         <v>4339.648</v>
       </c>
       <c r="G47" t="n">
-        <v>90157.19239999993</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1984,18 +1839,15 @@
         <v>2843.4421</v>
       </c>
       <c r="G48" t="n">
-        <v>87313.75029999993</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2017,18 +1869,15 @@
         <v>120142.5458</v>
       </c>
       <c r="G49" t="n">
-        <v>-32828.79550000008</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2050,18 +1899,15 @@
         <v>23.2261</v>
       </c>
       <c r="G50" t="n">
-        <v>-32828.79550000008</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2083,18 +1929,15 @@
         <v>38280.4547</v>
       </c>
       <c r="G51" t="n">
-        <v>-32828.79550000008</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2116,18 +1959,15 @@
         <v>32140.2687</v>
       </c>
       <c r="G52" t="n">
-        <v>-32828.79550000008</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2149,18 +1989,15 @@
         <v>34836.9966</v>
       </c>
       <c r="G53" t="n">
-        <v>-67665.79210000008</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2182,18 +2019,15 @@
         <v>34.00605449041372</v>
       </c>
       <c r="G54" t="n">
-        <v>-67631.78604550967</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2215,18 +2049,15 @@
         <v>34.00402414486921</v>
       </c>
       <c r="G55" t="n">
-        <v>-67597.78202136479</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2248,18 +2079,15 @@
         <v>75274.3496650852</v>
       </c>
       <c r="G56" t="n">
-        <v>7676.567643720409</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2281,18 +2109,15 @@
         <v>38204.3098</v>
       </c>
       <c r="G57" t="n">
-        <v>7676.567643720409</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2314,18 +2139,15 @@
         <v>5356.3584</v>
       </c>
       <c r="G58" t="n">
-        <v>2320.209243720409</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2347,18 +2169,15 @@
         <v>448.9306</v>
       </c>
       <c r="G59" t="n">
-        <v>2769.139843720409</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2380,18 +2199,15 @@
         <v>75274.3496</v>
       </c>
       <c r="G60" t="n">
-        <v>-72505.2097562796</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2413,18 +2229,15 @@
         <v>17341.9809</v>
       </c>
       <c r="G61" t="n">
-        <v>-89847.19065627959</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2446,18 +2259,15 @@
         <v>662.2925</v>
       </c>
       <c r="G62" t="n">
-        <v>-89184.8981562796</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2479,18 +2289,15 @@
         <v>1197.046</v>
       </c>
       <c r="G63" t="n">
-        <v>-90381.9441562796</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2512,18 +2319,15 @@
         <v>5890.5966</v>
       </c>
       <c r="G64" t="n">
-        <v>-84491.34755627959</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2545,18 +2349,15 @@
         <v>4490.1177</v>
       </c>
       <c r="G65" t="n">
-        <v>-80001.22985627959</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2578,18 +2379,15 @@
         <v>5000</v>
       </c>
       <c r="G66" t="n">
-        <v>-85001.22985627959</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2611,18 +2409,15 @@
         <v>24733.5597</v>
       </c>
       <c r="G67" t="n">
-        <v>-60267.67015627959</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2644,18 +2439,15 @@
         <v>2000</v>
       </c>
       <c r="G68" t="n">
-        <v>-62267.67015627959</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2677,18 +2469,15 @@
         <v>58000</v>
       </c>
       <c r="G69" t="n">
-        <v>-62267.67015627959</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2710,18 +2499,15 @@
         <v>2216.6217</v>
       </c>
       <c r="G70" t="n">
-        <v>-62267.67015627959</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2743,18 +2529,15 @@
         <v>500</v>
       </c>
       <c r="G71" t="n">
-        <v>-62267.67015627959</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2776,18 +2559,15 @@
         <v>1500</v>
       </c>
       <c r="G72" t="n">
-        <v>-62267.67015627959</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2809,18 +2589,15 @@
         <v>7198.5399</v>
       </c>
       <c r="G73" t="n">
-        <v>-69466.2100562796</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2842,18 +2619,15 @@
         <v>6500</v>
       </c>
       <c r="G74" t="n">
-        <v>-69466.2100562796</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2875,18 +2649,15 @@
         <v>500</v>
       </c>
       <c r="G75" t="n">
-        <v>-69466.2100562796</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2908,22 +2679,15 @@
         <v>2000</v>
       </c>
       <c r="G76" t="n">
-        <v>-69466.2100562796</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="J76" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2945,26 +2709,15 @@
         <v>500</v>
       </c>
       <c r="G77" t="n">
-        <v>-69466.2100562796</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="J77" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2986,24 +2739,15 @@
         <v>2106.3491</v>
       </c>
       <c r="G78" t="n">
-        <v>-69466.2100562796</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3025,22 +2769,15 @@
         <v>1500</v>
       </c>
       <c r="G79" t="n">
-        <v>-69466.2100562796</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="J79" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3062,26 +2799,15 @@
         <v>1000</v>
       </c>
       <c r="G80" t="n">
-        <v>-69466.2100562796</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="J80" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3103,26 +2829,15 @@
         <v>7623.7536</v>
       </c>
       <c r="G81" t="n">
-        <v>-77089.96365627959</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="J81" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3144,22 +2859,15 @@
         <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>-77089.96365627959</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3181,26 +2889,15 @@
         <v>16500</v>
       </c>
       <c r="G83" t="n">
-        <v>-60589.96365627959</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="J83" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3222,26 +2919,15 @@
         <v>10000</v>
       </c>
       <c r="G84" t="n">
-        <v>-60589.96365627959</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="J84" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3263,26 +2949,15 @@
         <v>1378</v>
       </c>
       <c r="G85" t="n">
-        <v>-60589.96365627959</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="J85" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3304,26 +2979,15 @@
         <v>9500</v>
       </c>
       <c r="G86" t="n">
-        <v>-51089.96365627959</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="J86" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3345,26 +3009,15 @@
         <v>3457.035</v>
       </c>
       <c r="G87" t="n">
-        <v>-51089.96365627959</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J87" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3386,26 +3039,15 @@
         <v>2950.0022</v>
       </c>
       <c r="G88" t="n">
-        <v>-51089.96365627959</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J88" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3427,26 +3069,15 @@
         <v>3500</v>
       </c>
       <c r="G89" t="n">
-        <v>-51089.96365627959</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3468,26 +3099,15 @@
         <v>3463.1789</v>
       </c>
       <c r="G90" t="n">
-        <v>-51089.96365627959</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3509,26 +3129,15 @@
         <v>1293.8606</v>
       </c>
       <c r="G91" t="n">
-        <v>-51089.96365627959</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J91" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3550,26 +3159,15 @@
         <v>6398.075</v>
       </c>
       <c r="G92" t="n">
-        <v>-51089.96365627959</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3591,26 +3189,15 @@
         <v>11638</v>
       </c>
       <c r="G93" t="n">
-        <v>-39451.96365627959</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3632,26 +3219,15 @@
         <v>13233.0736</v>
       </c>
       <c r="G94" t="n">
-        <v>-26218.89005627959</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>29.96</v>
-      </c>
-      <c r="J94" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3673,26 +3249,15 @@
         <v>10000</v>
       </c>
       <c r="G95" t="n">
-        <v>-16218.89005627959</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3714,26 +3279,15 @@
         <v>1000</v>
       </c>
       <c r="G96" t="n">
-        <v>-15218.89005627959</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>30.24</v>
-      </c>
-      <c r="J96" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3755,26 +3309,15 @@
         <v>23320.1512</v>
       </c>
       <c r="G97" t="n">
-        <v>8101.261143720407</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>30.25</v>
-      </c>
-      <c r="J97" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3796,24 +3339,15 @@
         <v>44339.5496</v>
       </c>
       <c r="G98" t="n">
-        <v>52440.8107437204</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3835,24 +3369,15 @@
         <v>21793.1797</v>
       </c>
       <c r="G99" t="n">
-        <v>74233.99044372039</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3874,24 +3399,15 @@
         <v>158252.3549</v>
       </c>
       <c r="G100" t="n">
-        <v>-84018.36445627961</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>29.86</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1.026480241125251</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3913,18 +3429,15 @@
         <v>58422.2186</v>
       </c>
       <c r="G101" t="n">
-        <v>-25596.14585627961</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3946,18 +3459,15 @@
         <v>697.7186</v>
       </c>
       <c r="G102" t="n">
-        <v>-25596.14585627961</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3979,18 +3489,15 @@
         <v>7810.0997</v>
       </c>
       <c r="G103" t="n">
-        <v>-33406.24555627961</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4012,18 +3519,15 @@
         <v>277.891</v>
       </c>
       <c r="G104" t="n">
-        <v>-33128.35455627961</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4045,18 +3549,15 @@
         <v>627.6933</v>
       </c>
       <c r="G105" t="n">
-        <v>-33756.04785627961</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4078,18 +3579,15 @@
         <v>128736.2512</v>
       </c>
       <c r="G106" t="n">
-        <v>94980.20334372039</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4111,18 +3609,15 @@
         <v>8835.963400000001</v>
       </c>
       <c r="G107" t="n">
-        <v>86144.2399437204</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4144,18 +3639,15 @@
         <v>94021.4184</v>
       </c>
       <c r="G108" t="n">
-        <v>180165.6583437204</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4177,18 +3669,15 @@
         <v>22027.8094</v>
       </c>
       <c r="G109" t="n">
-        <v>158137.8489437204</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4210,18 +3699,15 @@
         <v>9385.608700000001</v>
       </c>
       <c r="G110" t="n">
-        <v>158137.8489437204</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4243,18 +3729,15 @@
         <v>17660.5756</v>
       </c>
       <c r="G111" t="n">
-        <v>140477.2733437204</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4276,18 +3759,15 @@
         <v>1806.969795388113</v>
       </c>
       <c r="G112" t="n">
-        <v>142284.2431391085</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4309,18 +3789,15 @@
         <v>26.224</v>
       </c>
       <c r="G113" t="n">
-        <v>142258.0191391085</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4342,18 +3819,15 @@
         <v>14111.8204</v>
       </c>
       <c r="G114" t="n">
-        <v>128146.1987391085</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4375,18 +3849,15 @@
         <v>31611.0608</v>
       </c>
       <c r="G115" t="n">
-        <v>128146.1987391085</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4408,18 +3879,15 @@
         <v>69393.63181262263</v>
       </c>
       <c r="G116" t="n">
-        <v>197539.8305517311</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4441,18 +3909,15 @@
         <v>99539.6358</v>
       </c>
       <c r="G117" t="n">
-        <v>297079.4663517312</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4474,18 +3939,15 @@
         <v>20108.4588</v>
       </c>
       <c r="G118" t="n">
-        <v>276971.0075517311</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4507,18 +3969,15 @@
         <v>836.52</v>
       </c>
       <c r="G119" t="n">
-        <v>277807.5275517312</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4540,18 +3999,15 @@
         <v>12005.6878</v>
       </c>
       <c r="G120" t="n">
-        <v>265801.8397517311</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4573,18 +4029,15 @@
         <v>5367.1822</v>
       </c>
       <c r="G121" t="n">
-        <v>260434.6575517311</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4606,18 +4059,15 @@
         <v>17</v>
       </c>
       <c r="G122" t="n">
-        <v>260451.6575517311</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4639,18 +4089,15 @@
         <v>15000</v>
       </c>
       <c r="G123" t="n">
-        <v>245451.6575517311</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4672,18 +4119,15 @@
         <v>18973</v>
       </c>
       <c r="G124" t="n">
-        <v>264424.6575517311</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4705,18 +4149,15 @@
         <v>26742.6211</v>
       </c>
       <c r="G125" t="n">
-        <v>291167.2786517311</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4738,18 +4179,15 @@
         <v>4772.9072</v>
       </c>
       <c r="G126" t="n">
-        <v>295940.1858517311</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4771,18 +4209,15 @@
         <v>34.00329489291598</v>
       </c>
       <c r="G127" t="n">
-        <v>295974.189146624</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4804,18 +4239,15 @@
         <v>3742.3795</v>
       </c>
       <c r="G128" t="n">
-        <v>299716.568646624</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4837,18 +4269,15 @@
         <v>18330.9717</v>
       </c>
       <c r="G129" t="n">
-        <v>318047.540346624</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4870,18 +4299,15 @@
         <v>33268</v>
       </c>
       <c r="G130" t="n">
-        <v>284779.540346624</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4903,18 +4329,15 @@
         <v>9999.9992</v>
       </c>
       <c r="G131" t="n">
-        <v>274779.541146624</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4936,18 +4359,15 @@
         <v>23112.0242</v>
       </c>
       <c r="G132" t="n">
-        <v>297891.5653466239</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4969,18 +4389,15 @@
         <v>1429.3765</v>
       </c>
       <c r="G133" t="n">
-        <v>297891.5653466239</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5002,18 +4419,15 @@
         <v>591.6591</v>
       </c>
       <c r="G134" t="n">
-        <v>297299.906246624</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5035,18 +4449,15 @@
         <v>2303.5529</v>
       </c>
       <c r="G135" t="n">
-        <v>297299.906246624</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5068,18 +4479,15 @@
         <v>1144.1976</v>
       </c>
       <c r="G136" t="n">
-        <v>296155.7086466239</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5101,18 +4509,15 @@
         <v>10000</v>
       </c>
       <c r="G137" t="n">
-        <v>286155.7086466239</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5134,18 +4539,15 @@
         <v>37749.5397</v>
       </c>
       <c r="G138" t="n">
-        <v>248406.1689466239</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5167,18 +4569,15 @@
         <v>34.00263331138907</v>
       </c>
       <c r="G139" t="n">
-        <v>248440.1715799353</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5200,18 +4599,15 @@
         <v>33.99144455412965</v>
       </c>
       <c r="G140" t="n">
-        <v>248474.1630244894</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5233,18 +4629,15 @@
         <v>34.0118187787262</v>
       </c>
       <c r="G141" t="n">
-        <v>248508.1748432682</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5266,18 +4659,15 @@
         <v>1879.996732124183</v>
       </c>
       <c r="G142" t="n">
-        <v>250388.1715753924</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5299,18 +4689,15 @@
         <v>13586.0831</v>
       </c>
       <c r="G143" t="n">
-        <v>236802.0884753924</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5332,18 +4719,15 @@
         <v>33.99608865710561</v>
       </c>
       <c r="G144" t="n">
-        <v>236836.0845640495</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5365,18 +4749,15 @@
         <v>31177.8867</v>
       </c>
       <c r="G145" t="n">
-        <v>268013.9712640495</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5398,18 +4779,15 @@
         <v>212358.0843</v>
       </c>
       <c r="G146" t="n">
-        <v>55655.88696404948</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5431,18 +4809,15 @@
         <v>3539.358428104575</v>
       </c>
       <c r="G147" t="n">
-        <v>59195.24539215406</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5464,18 +4839,15 @@
         <v>1996</v>
       </c>
       <c r="G148" t="n">
-        <v>61191.24539215406</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5497,18 +4869,15 @@
         <v>4100</v>
       </c>
       <c r="G149" t="n">
-        <v>57091.24539215406</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5530,18 +4899,15 @@
         <v>28297.1463</v>
       </c>
       <c r="G150" t="n">
-        <v>85388.39169215405</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5563,18 +4929,15 @@
         <v>2901</v>
       </c>
       <c r="G151" t="n">
-        <v>85388.39169215405</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5596,18 +4959,15 @@
         <v>164253.6234</v>
       </c>
       <c r="G152" t="n">
-        <v>-78865.23170784596</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5629,18 +4989,15 @@
         <v>7620.9995</v>
       </c>
       <c r="G153" t="n">
-        <v>-71244.23220784595</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5662,18 +5019,15 @@
         <v>18371.9301</v>
       </c>
       <c r="G154" t="n">
-        <v>-89616.16230784595</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5695,18 +5049,15 @@
         <v>33540.0645</v>
       </c>
       <c r="G155" t="n">
-        <v>-56076.09780784595</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5728,18 +5079,15 @@
         <v>12495.7474</v>
       </c>
       <c r="G156" t="n">
-        <v>-68571.84520784595</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5761,18 +5109,15 @@
         <v>34.00662251655629</v>
       </c>
       <c r="G157" t="n">
-        <v>-68537.8385853294</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5794,18 +5139,15 @@
         <v>1380.9048</v>
       </c>
       <c r="G158" t="n">
-        <v>-69918.74338532941</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5827,18 +5169,15 @@
         <v>80601.22488702348</v>
       </c>
       <c r="G159" t="n">
-        <v>10682.48150169407</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5860,18 +5199,15 @@
         <v>11538.23736316661</v>
       </c>
       <c r="G160" t="n">
-        <v>-855.7558614725403</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5893,18 +5229,15 @@
         <v>33.98476316661146</v>
       </c>
       <c r="G161" t="n">
-        <v>-821.7710983059289</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5926,18 +5259,15 @@
         <v>34.00662251655629</v>
       </c>
       <c r="G162" t="n">
-        <v>-787.7644757893727</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5959,18 +5289,15 @@
         <v>1473.5982</v>
       </c>
       <c r="G163" t="n">
-        <v>-2261.362675789373</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5992,18 +5319,15 @@
         <v>1432.2564</v>
       </c>
       <c r="G164" t="n">
-        <v>-2261.362675789373</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6025,18 +5349,15 @@
         <v>2256.3295</v>
       </c>
       <c r="G165" t="n">
-        <v>-5.033175789372763</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6058,18 +5379,15 @@
         <v>558.13</v>
       </c>
       <c r="G166" t="n">
-        <v>553.0968242106272</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
